--- a/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_mediterranean-diet.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_mediterranean-diet.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699642124-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Mediterranean Diet</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699642127-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Gc8P8ozrwnyE544zsE7SwzDoW1g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/6715601-9692d88c6a774f5d81d9491827e11ab4.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267066/roasted-summer-squash-zucchini-and-brussels-sprouts/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Roasted Summer Squash, Zucchini, and Brussels Sprouts</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n7 \n\n\nYield:\n7 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons olive oil\n\n\n7  baby zucchini\n\n\n7  baby summer squash \n\n\n10  Brussels sprouts, halved, or more to taste\n\n\n½  sweet onion (such as Vidalia®), sliced\n\n\n  sea salt to taste\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons olive oil\n\n\n7  baby zucchini\n\n\n7  baby summer squash \n\n\n10  Brussels sprouts, halved, or more to taste\n\n\n½  sweet onion (such as Vidalia®), sliced\n\n\n  sea salt to taste\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Oil a baking sheet."},{"recipe_directions":"Place zucchini, summer squash, Brussels sprouts, and onion on the prepared baking sheet and drizzle with olive oil. Season with salt and pepper."},{"recipe_directions":"Bake in the preheated oven until tender, about 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Brussels Sprouts"},{"recipe_tags":"Roasted"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"137\nCalories\n\n\n8g \nFat\n\n\n15g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699642130-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GBUVkURzaiMyh_H-NOF6fLaOtZE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/666307-53309f186bc94d2c9ca12fc98199aa49.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14166/pasta-chickpea-salad/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Pasta Chickpea Salad</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 8 hrs 10 mins\n\n\nTotal Time:\n 8 hrs 45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package rotelle pasta\n\n\n2 tablespoons extra virgin olive oil\n\n\n½ cup chopped oil-cured olives\n\n\n2 tablespoons minced fresh oregano\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 bunch green onions, chopped\n\n\n1 (15 ounce) can garbanzo beans (chickpeas), drained and rinsed\n\n\n¼ cup red wine vinegar\n\n\n½ cup grated Parmesan cheese\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package rotelle pasta\n\n\n2 tablespoons extra virgin olive oil\n\n\n½ cup chopped oil-cured olives\n\n\n2 tablespoons minced fresh oregano\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 bunch green onions, chopped\n\n\n1 (15 ounce) can garbanzo beans (chickpeas), drained and rinsed\n\n\n¼ cup red wine vinegar\n\n\n½ cup grated Parmesan cheese\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of salted water to a boil, add pasta and cook until al dente, 9 to 12 minutes. Drain and rinse under cold water. Set aside to cool."},{"recipe_directions":"As the pasta is cooking, heat olive oil in a large skillet over medium-low heat. Add olives, oregano, parsley, green onions, and chickpeas. Reduce heat to low; cook for about 20 minutes. Set aside to cool, 10 to 15 minutes."},{"recipe_directions":"Transfer chickpea mixture to a large bowl; add pasta and toss. Stir in vinegar, grated Parmesan cheese and season with salt and pepper. Cover and refrigerate, 8 hours to overnight."},{"recipe_directions":"When ready to serve, taste for seasoning and add more vinegar, olive oil, salt, and pepper if desired."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Vegetarian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"424\nCalories\n\n\n10g \nFat\n\n\n69g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699642134-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RgqlGn_a12gNGTsHI2G5UjtjwWg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7764653-8b0c9ef259aa4e3f9fa6348758a3d879.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264820/spiced-air-fried-chickpeas/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Spiced Air-Fried Chickpeas</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 tablespoon nutritional yeast\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon smoked paprika\n\n\n1 teaspoon granulated garlic\n\n\n½ teaspoon salt\n\n\n1 pinch cumin"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 tablespoon nutritional yeast\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon smoked paprika\n\n\n1 teaspoon granulated garlic\n\n\n½ teaspoon salt\n\n\n1 pinch cumin'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread chickpeas on a double layer of paper towels, cover with another layer of paper towels, and let dry for 30 minutes."},{"recipe_directions":"Preheat air fryer to 355 degrees F (180 degrees C)."},{"recipe_directions":"Combine dry chickpeas, nutritional yeast, olive oil, smoked paprika, garlic, salt, and cumin in a bowl; toss to coat."},{"recipe_directions":"Add chickpeas to the air fryer and cook until crispy, 20 to 22 minutes, shaking them every 4 minutes."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"124\nCalories\n\n\n4g \nFat\n\n\n17g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699642137-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-moHCSIEwuDYWW2031DM3y_iCEc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2885623-garbanzo-bean-soup-Buckwheat-Queen-4x3-1-3f30cb27e58b4d1c8315ee38d236b813.jpg"
@@ -399,59 +728,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/55059/garbanzo-bean-soup/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Garbanzo Bean Soup</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14.5 ounce) can peeled and diced tomatoes\n\n\n1 teaspoon olive oil\n\n\n2 (15.5 ounce) cans garbanzo beans\n\n\n  salt and pepper to taste\n\n\n2 sprigs fresh rosemary\n\n\n1 cup acini di pepe pasta"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14.5 ounce) can peeled and diced tomatoes\n\n\n1 teaspoon olive oil\n\n\n2 (15.5 ounce) cans garbanzo beans\n\n\n  salt and pepper to taste\n\n\n2 sprigs fresh rosemary\n\n\n1 cup acini di pepe pasta'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the tomatoes, olive oil and 1 1/2 cans of the beans in a large saucepan. Bring to a boil. Puree the remaining 1/2 can of garbanzo beans using a blender or food processor, and stir into the saucepan. Place the sprigs of rosemary into the pan without breaking off the leaves. The sprigs will be removed before serving."},{"recipe_directions":"Add acini de pepe pasta and simmer until pasta is soft, stirring gently to prevent sticking. Remove rosemary, and season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"502\nCalories\n\n\n5g \nFat\n\n\n95g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699642140-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-du6gl4mAMLtr8GyRGMLXgVJh38=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1432x0:1434x2):format(webp)/8537016-8368ce47fe5f4734ad0d35269f9c867b.jpg"
@@ -464,59 +789,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281580/mediterranean-salmon-pasta-salad/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Mediterranean Salmon Pasta Salad</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ (16 ounce) package mezze (short) penne pasta\n\n\n1 cup sliced and quartered cucumber\n\n\n1 cup halved cherry tomatoes\n\n\n2 tablespoons minced shallot\n\n\n1 (2.6 ounce) pouch wild-caught pink salmon"},{"recipe_ingredients":"¼ cup extra-virgin olive oil\n\n\n1 tablespoon white wine vinegar\n\n\n1 tablespoon freshly squeezed lemon juice\n\n\n1 teaspoon lemon-pepper seasoning\n\n\n½ teaspoon Dijon mustard\n\n\n½ teaspoon salt\n\n\n¼ teaspoon dried dill weed"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ (16 ounce) package mezze (short) penne pasta\n\n\n1 cup sliced and quartered cucumber\n\n\n1 cup halved cherry tomatoes\n\n\n2 tablespoons minced shallot\n\n\n1 (2.6 ounce) pouch wild-caught pink salmon'}, {'recipe_ingredients': '¼ cup extra-virgin olive oil\n\n\n1 tablespoon white wine vinegar\n\n\n1 tablespoon freshly squeezed lemon juice\n\n\n1 teaspoon lemon-pepper seasoning\n\n\n½ teaspoon Dijon mustard\n\n\n½ teaspoon salt\n\n\n¼ teaspoon dried dill weed'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add penne and cook, stirring occasionally, until tender yet firm to the bite, about 10 minutes. Drain, rinse in cold water, drain well, and place in a serving bowl."},{"recipe_directions":"Top pasta with cucumber, tomatoes, and shallot. Break up salmon and sprinkle on top."},{"recipe_directions":"Whisk olive oil, vinegar, lemon juice, lemon-pepper seasoning, mustard, salt, and dill in a small bowl for the vinaigrette. Drizzle over the salad and toss gently to combine."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Salmon Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"376\nCalories\n\n\n17g \nFat\n\n\n45g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699642144-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jrC0D379nitHZ7UiBlqyf1ceHnk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3574067-6436117c981542968ec0894e40856378.jpg"
@@ -529,59 +850,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17167/sicilian-spaghetti/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Sicilian Anchovy Pasta</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound spaghetti\n\n\n4 tablespoons olive oil\n\n\n1 (2 ounce) can anchovy fillets, chopped\n\n\n3 cloves garlic, crushed\n\n\n2/3 cup fine bread crumbs, or to taste\n\n\n1 cup chopped fresh parsley\n\n\n  ground black pepper to taste\n\n\n4 tablespoons freshly grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound spaghetti\n\n\n4 tablespoons olive oil\n\n\n1 (2 ounce) can anchovy fillets, chopped\n\n\n3 cloves garlic, crushed\n\n\n2/3 cup fine bread crumbs, or to taste\n\n\n1 cup chopped fresh parsley\n\n\n  ground black pepper to taste\n\n\n4 tablespoons freshly grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add pasta and cook for 8 to 10 minutes or until al dente; drain."},{"recipe_directions":"Meanwhile, heat olive oil in a medium skillet over medium heat. Add anchovies and garlic; cook and stir continuously until anchovies sizzle and garlic is fragrant, about 2 minutes."},{"recipe_directions":"Stir in bread crumbs and turn off heat. Stir in parsley and pepper."},{"recipe_directions":"Toss anchovy sauce with hot pasta and sprinkle with Parmesan cheese; serve."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pasta"},{"recipe_tags":"Spaghetti"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"355\nCalories\n\n\n10g \nFat\n\n\n54g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699642148-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UM4as-oIlHCf5CzrViYpk50p8SQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1386x0:1388x2):format(webp)/8384895-0f2894f84f4d44dfab18a2cd7ec51fe3.jpg"
@@ -594,59 +911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281155/oven-roasted-carrots-and-onions/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Oven-Roasted Carrots and Onions</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 teaspoon white wine vinegar\n\n\n½ teaspoon dried parsley\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon dried oregano\n\n\n¼ teaspoon salt\n\n\n1 pinch ground black pepper to taste\n\n\n½ (16 ounce) package baby carrots\n\n\n½  red onion, cut into wedges\n\n\n4 cloves garlic, peeled and smashed"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 teaspoon white wine vinegar\n\n\n½ teaspoon dried parsley\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon dried oregano\n\n\n¼ teaspoon salt\n\n\n1 pinch ground black pepper to taste\n\n\n½ (16 ounce) package baby carrots\n\n\n½  red onion, cut into wedges\n\n\n4 cloves garlic, peeled and smashed'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a half sheet pan with parchment paper."},{"recipe_directions":"Whisk oil, vinegar, parsley, basil, oregano, salt, and pepper together in a bowl with a fork. Add carrots and turn to coat. Pour carrots onto the prepared sheet pan and nestle onions and garlic between them. Drizzle any remaining oil over the onions using a spatula."},{"recipe_directions":"Bake in the preheated oven until vegetables are soft and cooked through, turning after about 25 minutes, about 45 minutes total."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Onion"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"182\nCalories\n\n\n14g \nFat\n\n\n15g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699642151-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HGS4aCUvkJGNsK_RogctJ_HCnoM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(815x0:817x2):format(webp)/5607317-064774add5fb4a6c8786d80cb480557b.jpg"
@@ -659,59 +972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/266888/pasta-with-arugula-and-tomatoes/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Pasta with Arugula and Tomatoes</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 ounces spaghetti\n\n\n4 tablespoons olive oil\n\n\n2 cloves garlic, minced\n\n\n1 pint cherry tomatoes, halved\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 (5 ounce) package arugula, torn\n\n\n2 tablespoons shaved Parmesan cheese, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 ounces spaghetti\n\n\n4 tablespoons olive oil\n\n\n2 cloves garlic, minced\n\n\n1 pint cherry tomatoes, halved\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 (5 ounce) package arugula, torn\n\n\n2 tablespoons shaved Parmesan cheese, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook spaghetti in the boiling water, stirring occasionally, until tender yet firm to the bite, about 12 minutes. Drain."},{"recipe_directions":"Meanwhile, heat olive oil in a skillet over medium-low heat and cook garlic until translucent and fragrant, about 2 minutes. Add cherry tomatoes. Increase heat, cook, and stir until lightly browned, 5 to 7 minutes. Season with salt and pepper."},{"recipe_directions":"Remove skillet from heat and mix in arugula. Mix in cooked spaghetti and drizzle with olive oil. Serve immediately with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pasta"},{"recipe_tags":"Spaghetti"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"555\nCalories\n\n\n21g \nFat\n\n\n77g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699642156-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AawN_02h5ZVIhr2AjbJ5yitKyPA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1293155-e1f36e13c75a4efc9d7d97af1c1373a8.jpg"
@@ -724,59 +1033,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14229/tabbouleh-i/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Cucumber Tabbouleh</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup bulgur\n\n\n1 ⅔ cups boiling water\n\n\n⅓ cup olive oil\n\n\n⅓ cup lemon juice\n\n\n1 cup chopped green onions\n\n\n1 cup chopped fresh parsley\n\n\n¼ cup chopped fresh mint\n\n\n3  tomatoes, chopped\n\n\n1  cucumber - peeled, seeded and chopped\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup bulgur\n\n\n1 ⅔ cups boiling water\n\n\n⅓ cup olive oil\n\n\n⅓ cup lemon juice\n\n\n1 cup chopped green onions\n\n\n1 cup chopped fresh parsley\n\n\n¼ cup chopped fresh mint\n\n\n3  tomatoes, chopped\n\n\n1  cucumber - peeled, seeded and chopped\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine bulgur and boiling water in a large bowl. Cover, and set aside to soak for 1 hour."},{"recipe_directions":"Add oil, lemon juice, onions, parsley, mint, tomatoes, and cucumber; toss to combine. Season to taste with salt and black pepper. Cover, and refrigerate for at least 1 hour."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n10g \nFat\n\n\n18g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699642160-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gyg65AhkYQSlaGnHO4OHfddzNxY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1184x1042:1186x1044):format(webp)/6904111_ItalianGrilledEggplantwithBasilandParsley4x3-c3d6d99fcc084c98942917d3bde30621.jpg"
@@ -790,59 +1095,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275133/italian-grilled-eggplant-with-basil-and-parsley-melanzane-grigliate-al-basilico-e-prezzemolo/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Italian Grilled Eggplant with Basil and Parsley (Melanzane Grigliate al Basilico e Prezzemolo)</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  eggplant, sliced into 1/2-inch rounds\n\n\n⅓ cup extra virgin olive oil\n\n\n2 cloves garlic, minced\n\n\n⅛ teaspoon salt\n\n\n2 tablespoons chopped fresh basil\n\n\n1 tablespoon chopped fresh flat-leaf parsley"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  eggplant, sliced into 1/2-inch rounds\n\n\n⅓ cup extra virgin olive oil\n\n\n2 cloves garlic, minced\n\n\n⅛ teaspoon salt\n\n\n2 tablespoons chopped fresh basil\n\n\n1 tablespoon chopped fresh flat-leaf parsley'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Brush eggplant lightly with some of the olive oil on both sides."},{"recipe_directions":"Stir together remaining olive oil, garlic, and salt in a small bowl until combined; set aside."},{"recipe_directions":"Arrange eggplant slices on the preheated grill and cook, turning occasionally, until tender and browned, 3 to 4 minutes per side."},{"recipe_directions":"Arrange grilled eggplant on a platter. Brush with olive oil-garlic mixture until eggplant has absorbed oil. Sprinkle with basil and parsley to serve."},{"recipe_directions":"You can serve this dish warm or at room temperature. Leftovers taste great on a panini."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"204\nCalories\n\n\n19g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699642164-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bubKuHNzWEnyQn0-QjF6-wvROC4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(886x0:888x2):format(webp)/273111-fasolakia-greek-green-beans-buckwheat-queen-2d26dcb18dda45deb21147abf25da2b0.jpg"
@@ -854,59 +1155,55 @@
 12 Budget-Friendly Mediterranean Diet Recipes</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/budget-friendly-mediterranean-diet-recipes/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>12 Budget-Friendly Mediterranean Diet Recipes</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"The Mediterranean diet is the rare beast that successfully combines delicious food with the concept of a diet. In truth, the Mediterranean diet is more \"healthy way of life\" than dreary diet that you're forced to conform to. The Mediterranean diet does it by featuring whole foods that taste great with minimal preparations. And it sure doesn't hurt that a little red wine is part of the deal! Fresh, healthy, whole ingredients can, however, be expensive, particularly if they're also organic. But the good news is, on the Mediterranean Diet, you really can eat healthy on a budget. Here are some of the best budget-friendly recipes for the Mediterranean diet."},{"recipe_directions":"Inexpensive tilapia fillets simmer with veggies, garbanzo beans, and Moroccan spices. \"Absolutely an EXCELLENT recipe,\" says Yummy2Tummy. \"My non-fish-loving husband wolfed this down in 5 minutes!\""},{"recipe_directions":"This barley-based vegetable soup is hearty and filling for a song. It's even cheaper if you make your own broth. \"This is my kind of recipe,\" says Naneki. \"Healthy, flavorful, inexpensive, and easy.\""},{"recipe_directions":"Canned salmon is a great choice for quick weeknight meals. These simple salmon patties put a healthy dinner on the table in less than 30 minutes. Sapphire says, \"I make this with any type of fish that is left over. I use ground oats instead of panko. They are great. We even used them as filling for taco night.\""},{"recipe_directions":"Here's one that calls for inexpensive canned tuna. Chef John says, \"I love a classic meat sauce as much as the next half-Italian, but when I want something quick and easy for a weeknight meal, I reach for the tuna.\" And if you don't like fish? \"Then this is perfect,\" he says. \"The taste and texture is really closer to a veal sauce than one made with fish.\""},{"recipe_directions":"A hearty Italian-style white bean soup with lots of fresh spinach. The white beans develop a wonderful creamy texture without any actual cream, so it's healthy, too. As Sarah puts it: \"All the delicious flavor of an unhealthy cream-based soup, but it's so good for you! Wonderful!\""},{"recipe_directions":"This simple marinara sauce is the kind of satisfying comfort food that goes a long way for not a lot of money. \"Melting just a little cheese in the sauce adds great richness without overwhelming the tomatoes,\" says NMP. \"And it's easy to keep these ingredients stocked in the house! Makes for amazing leftovers!\""},{"recipe_directions":"\"Fasolakia are Greek green beans stewed with olive oil and tomato, with a few pieces of potato added for good measure,\" says Diana Moutsopoulos. \"This is a main dish in Greece, not a side dish, and a prime example of plant-based eating! Good crusty bread is essential for mopping up the sauce and I always need to have a healthy chunk of feta on the side. Serve fasolakia warm or at room temperature for best flavor.\""},{"recipe_directions":"\"Chakchouka (also called shakshouka) is a Tunisian and Israeli dish of tomatoes, onions, pepper, spices, and eggs,\" says Ben. \"It is similar to the Turkish dish 'Menemen' and to the Latin American breakfast dish 'Huevos Rancheros.' It's usually eaten for breakfast or lunch, but I think it's tasty anytime. And it's easy to make.\""},{"recipe_directions":"Chicken combines with garbanzo beans, sweet potatoes, carrots, canned diced tomatoes, and seasonings. The Occasional Cooker calls it \"a delicious, easy, healthy, and budget-friendly one-dish meal. Excellent.\""},{"recipe_directions":"This vegetarian minestrone soup is loaded with vegetables, kidney beans, and elbow macaroni. \"Slow cooking this soup allows all the flavors and spices to intensify,' says Laura."},{"recipe_directions":"Ready in 15 minutes! You'll rub mackerel fillets with olive oil and paprika, top them with sliced lemons, and broil to beautiful. \"Holy Mackerel! Simple and yummy,\" says dbmojo. \"With a bonus: Mackerel is a sustainable fish.\""},{"recipe_directions":"\"Cranberry beans, also called borlotti beans, are considered 'the poor man's meat' due to their nutritional value,\" says Buckwheat Queen. \"Creamy risotto made with fresh cranberry beans comes from the Lombardy region of Italy. With traditional flavors from the region, this risotto is bursting with flavor and healthy goodness. Cranberry beans are also called borlotti beans.\""}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Mediterranean Diet Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699642168-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QCdDKeJUfRjEQ94TIeSzfuQ2ZXs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8921243_slow-cooker-mediterranean-lentil-stew_-2000-73458acb15974347acc3b186927cf877.jpg"
@@ -918,59 +1215,55 @@
 11 Best Slow Cooker Recipes for the Mediterranean Diet</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/best-slow-cooker-recipes-for-the-mediterranean-diet/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>11 Best Slow Cooker Recipes for the Mediterranean Diet</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"We're all about the Mediterranean Diet around here. Truth be told, it's more of a lifestyle than a typical, restrictive diet. The Mediterranean Diet puts the focus on healthy, whole foods that we love eating anyway. And it's kind to wine. What's not to love? It also takes well to slow, flavor-building preparations. With that in mind, we've put together a list of convenient slow-cooker recipes that feature Mediterranean Diet-friendly foods."},{"recipe_directions":"\"Easy to make, flavorful, and creates a wonderful aroma to come home to,\" says Chris. You'll simply simmer a boneless turkey breast in the slow cooker with kalamata olives, sun-dried tomatoes, Greek seasoning, and chicken broth brightened with a squeeze of fresh lemon juice. Pam made a couple adjustments: \"I added hot pepper rings for spice and a can of garbanzo beans. Near the end I added a can of artichoke hearts. Excellent!\""},{"recipe_directions":"\"Yum, this is a delicious dinner,\" says Buckwheat Queen. \"The meat was so tender and the sauce this recipe creates is fantastic. Leftovers made an excellent sauce for pasta.\""},{"recipe_directions":"In this vegetarian recipe, butternut squash, eggplant, zucchini, and frozen okra cook slowly in a flavorful, seasoned tomato sauce. \"A wonderful, wonderful stew that is easy to make,\" says Tiffany. \"The amazing flavors meld together so well and create such a surprisingly deliciously and unique dish!\""},{"recipe_directions":"Strips of boneless, skinless chicken breast combine with garbanzo beans, sweet potatoes, carrots, canned diced tomatoes, and plenty of seasonings. \"Excellent,\" raves the Occasional Cooker. \"A delicious, easy, healthy, and budget-friendly one-dish meal. The flavors blended nicely and it smelled wonderful while it was cooking.\""},{"recipe_directions":"This is an easy, excellent slow cooker recipe. Just mix the ingredients and let it cook. \"Delicious!\" says CookingForDummies. \"Spiced with cumin and coriander and flavored with tomato paste, this veggie-filled lentil stew will keep you warm for winter, and all year round! Good with a loaf of fresh-baked rustic bread! Vegetarian and vegan. Serve with a piece of bread for dipping.\""},{"recipe_directions":"Here's a Spanish-style slow-cooker recipe that combines beef with olives, potatoes, garlic, and onions with sofrito, the flavorful Spanish tomato and green pepper-based condiment, which is a terrific cooking base. \"Very easy to make,\" says Caroline. \"It reminded me of cacciatore. Added carrots for that real beef stew feel. Delicious.\""},{"recipe_directions":"Chicken cooks low-and-slow over a bed of pepperoncini, olives, and garlic in a creamy lemon sauce. \"The combination of flavors was wonderful,\" says Tiffiecancook. \"When the meat was gone, we saved the sauce and used it to spoon over rice and grilled pork chops a few days later. Cookingcub adds: \"This is an excellent low-cal dish without the sour cream,\" she says. \"I've made it with and without, and found it to be great either way.\""},{"recipe_directions":"Chicken breast halves simmer slowly with spaghetti sauce, tomato paste, diced bell peppers, garlic, sliced mushrooms, and simple seasonings over low heat. \"My family loved this,\" says mvukas. \"The chicken was so tender and juicy. I held the mushrooms out and sauted them in butter and red wine.\""},{"recipe_directions":"A hearty vegetarian minestrone soup that's loaded with vegetables and macaroni. \"Slow cooking this soup allows all the flavors and spices to intensify and delivers a delicious, hearty meal,\" says laura. \"Serve with a green salad and garlic bread for dipping.\""},{"recipe_directions":"\"My family is from Greece and this lentil soup recipe is adapted from my traditional Greek lentil soup (fakes) recipe,\" says Diana Moutsopoulos. \"Since becoming a mom, finding time to cook has been hard, and this soup was a perfect slow cooker candidate. My husband and I think it tastes better than when made on the stove. Baby loves it, too!\""},{"recipe_directions":"Seasoned chicken simmers with chickpeas, diced tomatoes, artichoke hearts, carrots, onions, and garlic. You'll add green beans and bell peppers toward the end of cooking. \"This delicious slow cooker meal of chicken and vegetables pairs up nicely with couscous and pita bread,\" says DebMCE4."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Slow Cooker"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699642173-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_xBZDhnyo-t7h_H9xovuEiCbuOg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/223535summer-chickpea-saladConfessionsofaGroceryAddict4x3-c11ada09cceb4ea8b5ae164e5f36f08b.jpg"
@@ -984,59 +1277,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223535/summer-chickpea-salad/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Chickpea Salad</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n0 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (19 ounce) cans chickpeas (garbanzos), drained and rinsed\n\n\n1 pint small cherry tomatoes, halved\n\n\n½ cup crumbled goat-milk feta cheese\n\n\n3 tablespoons finely shredded basil leaves \n\n\n2 tablespoons honey\n\n\n3 large cloves garlic, minced\n\n\n3 tablespoons red wine vinegar\n\n\n3 tablespoons cider vinegar\n\n\n3 tablespoons olive oil\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon cayenne pepper\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (19 ounce) cans chickpeas (garbanzos), drained and rinsed\n\n\n1 pint small cherry tomatoes, halved\n\n\n½ cup crumbled goat-milk feta cheese\n\n\n3 tablespoons finely shredded basil leaves \n\n\n2 tablespoons honey\n\n\n3 large cloves garlic, minced\n\n\n3 tablespoons red wine vinegar\n\n\n3 tablespoons cider vinegar\n\n\n3 tablespoons olive oil\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon cayenne pepper\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss chickpeas, tomatoes, feta cheese, and basil together in a large mixing bowl."},{"recipe_directions":"To make the dressing: Put honey in a small glass bowl; heat in microwave for 30 seconds to make it easier to blend. Stir in garlic, red wine vinegar, cider vinegar, olive oil, black pepper, cayenne pepper, and salt."},{"recipe_directions":"Pour dressing over chickpea salad and toss to coat. Cover the mixing bowl with plastic wrap; refrigerate for 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"347\nCalories\n\n\n12g \nFat\n\n\n51g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699642177-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ot0z2ng-KvwdSYkPZNNxj3Faf60=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/588854-274b47807d6a4f09996f6c9a09c77293.jpg"
@@ -1049,59 +1338,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20797/extra-easy-hummus/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Extra Easy Hummus</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can garbanzo beans, drained, liquid reserved\n\n\n1 clove garlic, crushed\n\n\n2 teaspoons ground cumin\n\n\n½ teaspoon salt\n\n\n1 tablespoon olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can garbanzo beans, drained, liquid reserved\n\n\n1 clove garlic, crushed\n\n\n2 teaspoons ground cumin\n\n\n½ teaspoon salt\n\n\n1 tablespoon olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a blender or food processor combine garbanzo beans, garlic, cumin, salt and olive oil. Blend on low speed, gradually adding reserved bean liquid, until desired consistency is achieved."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Quick and Easy"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"118\nCalories\n\n\n4g \nFat\n\n\n17g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699642180-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ch1M6aF5TAhdUObu1uMHPYsxvlM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(594x0:596x2):format(webp)/image-5-1-6169a0a8617b4ee5888d031df1084044.jpeg"
@@ -1113,59 +1398,55 @@
 A Full Week's Worth of Menus for the Mediterranean Diet</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/seven-mediterranean-diet-menus/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>A Full Week's Worth of Menus for the Mediterranean Diet</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"We love the fresh produce, whole-food focus of the Mediterranean diet. But sometimes we struggle to put together a complete Mediterranean-inspired meal for dinner. Often, we land on the perfect main dish but stall out trying to find the right side. So to make things easier, we've gathered together healthy menus that pair Mediterranean diet-friendly main dishes with sides for the entire week — mix and match them as you like. We've also dropped in a few breakfast suggestions to help keep things Mediterranean friendly all day. Here they are, a week's worth of complete meals for your healthy Mediterranean diet."},{"recipe_directions":"This menu starts with chicken tenders with balsamic-fig sauce. Boneless, skinless chicken breasts pair up with a red wine, balsamic vinegar, shallot, garlic, and fig sauce. Lutzflcat says, \"The balsamic vinegar is a nice contrast to the sweet figs which add great texture, and the thyme provides just a bit of savoriness to this sweet and rich sauce.\" Pair it with a vibrant, herby quinoa tabbouleh; and a fresh, flavorful Mediterranean-inspired bean and tomato salad brightened up with a light, refreshing olive oil and lemon-juice dressing."},{"recipe_directions":"Get the recipes:"},{"recipe_directions":"This menu begins with Moroccan-inspired white fish, which cooks on a bed of sauteed onions, garlic, bell peppers, carrots, tomatoes, olives, and garbanzo beans. \"This dish is wonderful, full of flavor and a healthy dinner,\" says Cindy McGary. We've paired it with a vegetarian grain salad featuring ripe tomatoes, fresh herbs, cucumbers, red onion, pearl couscous, and a bright dressing."},{"recipe_directions":"Get the recipes:"},{"recipe_directions":"For the main dish, strips of skinless, boneless chicken breast combine with grape tomatoes, green onions, zucchini, and sun-dried tomato pesto. Pair it up with steamed fresh kale tossed with a lemony dressing."},{"recipe_directions":"Get the recipes:"},{"recipe_directions":"This Greek-inspired dinner features crispy, browned chicken and potatoes. \"Best roasted chicken I have ever made,\" raves missmisty. Serve it with Chef John's Greek salad, which boasts a a healthy combo of crunchy cucumbers, tomatoes, olives, oregano, and feta cheese dressed with a simple vinaigrette."},{"recipe_directions":"Get the recipes:"},{"recipe_directions":"\"Flounder baked with fresh tomatoes, kalamata olives, capers, onion, and white wine,\" says Martin Kaplan. Serve with white rice and a green vegetable.\" Try it with Briam, a traditional Greek vegetable dish featuring roasted potatoes, zucchini, pureed tomatoes, red onions, and lots of olive oil; and/or a savory vegetable pilaf featuring chopped spinach, peas, garlic, onion, and tomatoes, with protein-rich millet, rosemary, and white wine."},{"recipe_directions":"Get the recipes:"},{"recipe_directions":"Sicilian olive chicken is a saucy one-skillet chicken dish with tomatoes, spinach, olives, and capers. \"Try Kalamata olives in place of the green Sicilians or a combination of both,\" says Breana Lai. Enjoy with Sicilian-style broccoli rabe. iMakeItRainInTheKitchen recommends serving it with \"crusty Italian bread and some good vino. The best part is dipping the crusty bread in those juices. Buon appetito!\""},{"recipe_directions":"Get the recipes:"},{"recipe_directions":"\"I love a classic meat sauce as much as the next half-Italian, but when I want something quick and easy for a weeknight meal, I reach for the tuna,\" says Chef John. \"The taste and texture is really closer to a veal sauce than one made with fish.\" It will match up beautifully panzanella, a simple, rustic bread salad with tomatoes, crispy bread cubes, and fresh basil in a red wine vinegar and olive oil dressing."},{"recipe_directions":"Get the recipes:"}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Mediterranean Diet Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699642185-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3LdGLCbBKq_H5FWRJiBRJ1rb25w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/974375-flounder-mediterranean-cookinmama-4x3-1-024d407408a14232a5b4e5de7b5995f3.jpg"
@@ -1179,59 +1460,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/45187/flounder-mediterranean/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Flounder Mediterranean</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5  roma (plum) tomatoes\n\n\n2 tablespoons extra virgin olive oil\n\n\n½  Spanish onion, chopped\n\n\n2 cloves garlic, chopped\n\n\n1 pinch Italian seasoning\n\n\n24  kalamata olives, pitted and chopped\n\n\n¼ cup white wine\n\n\n¼ cup capers\n\n\n1 teaspoon fresh lemon juice\n\n\n6 leaves fresh basil, chopped\n\n\n3 tablespoons freshly grated Parmesan cheese\n\n\n1 pound flounder fillets\n\n\n6 leaves fresh basil, torn"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5  roma (plum) tomatoes\n\n\n2 tablespoons extra virgin olive oil\n\n\n½  Spanish onion, chopped\n\n\n2 cloves garlic, chopped\n\n\n1 pinch Italian seasoning\n\n\n24  kalamata olives, pitted and chopped\n\n\n¼ cup white wine\n\n\n¼ cup capers\n\n\n1 teaspoon fresh lemon juice\n\n\n6 leaves fresh basil, chopped\n\n\n3 tablespoons freshly grated Parmesan cheese\n\n\n1 pound flounder fillets\n\n\n6 leaves fresh basil, torn'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Bring a saucepan of water to a boil. Plunge tomatoes into the boiling water and immediately remove to a medium bowl of ice water; drain. Remove and discard skins from tomatoes. Chop tomatoes and set aside."},{"recipe_directions":"Heat olive oil in a skillet over medium heat; saute onion until tender, about 5 minutes. Stir in tomatoes, garlic and Italian seasoning; cook until tomatoes are tender, 5 to 7 minutes. Mix in olives, wine, capers, lemon juice, and 1/2 the basil. Reduce heat, blend in Parmesan cheese, and cook until the mixture is reduced to a thick sauce, about 15 minutes."},{"recipe_directions":"Place flounder in a shallow baking dish. Pour sauce over the fillets and top with remaining basil leaves."},{"recipe_directions":"Bake 12 minutes in the preheated oven, until fish is easily flaked with a fork."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"282\nCalories\n\n\n15g \nFat\n\n\n8g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699642189-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Kll__JbHz5CkjOk3w4_Qu9D5Bik=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(555x402:557x404):format(webp)/2520612-grilled-tuna-Renny-Sabina-4x3-1-9daa2cb6e1724078ab6eca16938bc393.jpg"
@@ -1245,59 +1522,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12730/grilled-tuna/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Grilled Tuna</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n6 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 16 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 (6 ounce) albacore tuna steaks, 1 inch thick\n\n\n3 tablespoons extra virgin olive oil\n\n\n  salt and ground black pepper to taste\n\n\n1  lime, juiced\n\n\n½ cup hickory wood chips, soaked"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 (6 ounce) albacore tuna steaks, 1 inch thick\n\n\n3 tablespoons extra virgin olive oil\n\n\n  salt and ground black pepper to taste\n\n\n1  lime, juiced\n\n\n½ cup hickory wood chips, soaked'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tuna steaks and olive oil in a large resealable plastic bag. Seal, and refrigerate for 1 hour."},{"recipe_directions":"Preheat the grill for medium heat. When coals are very hot, scatter a handful of hickory or mesquite wood chips over them for flavor."},{"recipe_directions":"Lightly oil grill grate. Season tuna with salt and pepper, and cook on the preheated grill approximately 6 minutes, turning once. Transfer to a serving platter, and drizzle with freshly squeezed lime juice. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Tuna"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"281\nCalories\n\n\n12g \nFat\n\n\n2g \nCarbs\n\n\n40g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699642194-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cYvMkRYGAYQ3EkcnUpjuFjXgQXQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/8000928-f4921362b69b4a709566a38c2a70367c.jpg"
@@ -1310,59 +1583,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273309/roasted-asparagus-zucchini-and-tomatoes/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Roasted Asparagus, Zucchini, and Tomatoes</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound fresh asparagus, trimmed and cut into thirds\n\n\n2  zucchini, thinly sliced\n\n\n2  yellow squash, thinly sliced\n\n\n1 cup grape tomatoes\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon minced garlic\n\n\n½  lemon\n\n\n  sea salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound fresh asparagus, trimmed and cut into thirds\n\n\n2  zucchini, thinly sliced\n\n\n2  yellow squash, thinly sliced\n\n\n1 cup grape tomatoes\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon minced garlic\n\n\n½  lemon\n\n\n  sea salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Place asparagus in a microwave-safe dish with a splash of water; microwave for 3 to 4 minutes."},{"recipe_directions":"Spread zucchini, yellow squash, and grape tomatoes out on the prepared baking sheet. Drizzle with olive oil and sprinkle with garlic and sea salt."},{"recipe_directions":"Roast in the preheated oven for 5 minutes. Add asparagus and roast until vegetables are tender, 3 to 5 more minutes. Transfer vegetables to a serving bowl; squeeze lemon juice over the top and season with sea salt."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"101\nCalories\n\n\n4g \nFat\n\n\n16g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699642204-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bHBPG33T_DmrUqnI-etSJn8ydUI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/13287-creamy-italian-white-bean-soup-DDMFS-4x3-2e7c6b3ff12f4349802c135d17ac8504.jpg"
@@ -1376,59 +1645,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13287/creamy-italian-white-bean-soup/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Creamy Italian White Bean Soup</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 stalk celery, chopped\n\n\n1 clove garlic, minced\n\n\n2 (16 ounce) cans white kidney beans, rinsed and drained\n\n\n1 (14 ounce) can chicken broth\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon dried thyme\n\n\n2 cups water\n\n\n1 bunch fresh spinach, rinsed and thinly sliced\n\n\n1 tablespoon lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 stalk celery, chopped\n\n\n1 clove garlic, minced\n\n\n2 (16 ounce) cans white kidney beans, rinsed and drained\n\n\n1 (14 ounce) can chicken broth\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon dried thyme\n\n\n2 cups water\n\n\n1 bunch fresh spinach, rinsed and thinly sliced\n\n\n1 tablespoon lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large saucepan, heat oil. Cook onion and celery in oil for 5 to 8 minutes, or until tender. Add garlic, and cook for 30 seconds, continually stirring."},{"recipe_directions":"Stir in beans, chicken broth, pepper, thyme and 2 cups water. Bring to a boil, reduce heat, and then simmer for 15 minutes."},{"recipe_directions":"With slotted spoon, remove 2 cups of the bean and vegetable mixture from soup and set aside."},{"recipe_directions":"In blender at low speed, blend remaining soup in small batches until smooth, (it helps to remove the center piece of the blender lid to allow steam to escape.)"},{"recipe_directions":"Once blended pour soup back into stock pot and stir in reserved beans."},{"recipe_directions":"Bring to a boil, occasionally stirring. Stir in spinach and cook 1 minute or until spinach is wilted."},{"recipe_directions":"Stir in lemon juice and remove from heat and serve with fresh grated Parmesan cheese on top."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"245\nCalories\n\n\n5g \nFat\n\n\n38g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699642209-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vOk7TRX59fT9NzvGCQfDtF89kOw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/597389-f2cbb6dbbdd54405bade66a6947574b2.jpg"
@@ -1441,59 +1706,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/183947/baked-falafel/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Baked Falafel</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n2 \n\n\nYield:\n4 patties"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup chopped onion\n\n\n1 (15 ounce) can garbanzo beans, rinsed and drained\n\n\n¼ cup chopped fresh parsley\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon ground coriander\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon baking soda\n\n\n1 tablespoon all-purpose flour\n\n\n1  egg, beaten\n\n\n2 teaspoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup chopped onion\n\n\n1 (15 ounce) can garbanzo beans, rinsed and drained\n\n\n¼ cup chopped fresh parsley\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon ground coriander\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon baking soda\n\n\n1 tablespoon all-purpose flour\n\n\n1  egg, beaten\n\n\n2 teaspoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Wrap onion in cheese cloth and squeeze out as much moisture as possible. Set aside. Place garbanzo beans, parsley, garlic, cumin, coriander, salt, and baking soda in a food processor. Process until the mixture is coarsely pureed. Mix garbanzo bean mixture and onion together in a bowl. Stir in the flour and egg. Shape mixture into four large patties and let stand for 15 minutes."},{"recipe_directions":"Preheat an oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Heat olive oil in a large, oven-safe skillet over medium-high heat. Place the patties in the skillet; cook until golden brown, about 3 minutes on each side."},{"recipe_directions":"Transfer skillet to the preheated oven and bake until heated through, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"281\nCalories\n\n\n9g \nFat\n\n\n39g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699642216-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pMA-eCXSWku31hB0suMubvDWzt4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1034820-5984c982fa264fe382e8496d46e41e1d.jpg"
@@ -1506,59 +1767,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86775/penne-with-shrimp/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Penne with Shrimp</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package penne pasta\n\n\n2 tablespoons olive oil\n\n\n¼ cup chopped red onion\n\n\n1 tablespoon chopped garlic\n\n\n¼ cup white wine\n\n\n2 (14.5 ounce) cans diced tomatoes\n\n\n1 pound shrimp, peeled and deveined\n\n\n1 cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package penne pasta\n\n\n2 tablespoons olive oil\n\n\n¼ cup chopped red onion\n\n\n1 tablespoon chopped garlic\n\n\n¼ cup white wine\n\n\n2 (14.5 ounce) cans diced tomatoes\n\n\n1 pound shrimp, peeled and deveined\n\n\n1 cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add pasta and cook for 8 to 10 minutes or until al dente; drain."},{"recipe_directions":"Heat the oil in a skillet over medium heat. Stir in onion and garlic, and cook until onion is tender. Mix in wine and tomatoes, and continue cooking 10 minutes, stirring occasionally."},{"recipe_directions":"Mix shrimp into the skillet, and cook 5 minutes, or until opaque. Toss with pasta and top with Parmesan cheese to serve."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"385\nCalories\n\n\n9g \nFat\n\n\n49g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699642221-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KnUPTRCTfe492THZmVFl3Uyo7MY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8978236-espinacas-con-garbanzos-spinach-with-garbanzo-beans-The-Soup-Spoon-1x1-1-60fa4d24656e4c7996dcd57dc6e4501d.jpg"
@@ -1572,59 +1829,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/161535/espinacas-con-garbanzos-spinach-with-garbanzo-beans/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Espinacas con Garbanzos (Spinach with Garbanzo Beans)</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon extra-virgin olive oil\n\n\n4 cloves garlic, minced\n\n\n½  onion, diced\n\n\n1 (10 ounce) box frozen chopped spinach, thawed and drained well\n\n\n1 (12 ounce) can garbanzo beans, drained\n\n\n½ teaspoon cumin\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon extra-virgin olive oil\n\n\n4 cloves garlic, minced\n\n\n½  onion, diced\n\n\n1 (10 ounce) box frozen chopped spinach, thawed and drained well\n\n\n1 (12 ounce) can garbanzo beans, drained\n\n\n½ teaspoon cumin\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the olive oil in a skillet over medium-low heat. Cook the garlic and onion in the oil until translucent, about 5 minutes. Stir in the spinach, garbanzo beans, cumin, and salt. Use your stirring spoon to lightly mash the beans as the mixture cooks. Allow to cook until thoroughly heated."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"169\nCalories\n\n\n5g \nFat\n\n\n26g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699642227-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cLx9f5NqmbFPmWiXhdgDLXcSd80=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(649x0:651x2):format(webp)/4561727-578dd97bd94c4f978869e2506958cafb.jpg"
@@ -1637,59 +1890,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260446/mediterranean-rice-salad-with-vegetables/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Mediterranean Rice Salad with Vegetables</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n23 mins\n\n\nTotal Time:\n43 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups water\n\n\n2 cups uncooked white rice\n\n\n2 tablespoons extra-virgin olive oil, divided\n\n\n1 teaspoon herb salt\n\n\n1 tablespoon chopped capers\n\n\n1 sprig fresh parsley, chopped\n\n\n½  lemon, zested\n\n\n3  zucchini, peeled and grated\n\n\n2  carrots, peeled and grated\n\n\n½  yellow bell pepper, cut into cubes\n\n\n½  red bell pepper, cut into cubes\n\n\n1  lemon, juiced\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups water\n\n\n2 cups uncooked white rice\n\n\n2 tablespoons extra-virgin olive oil, divided\n\n\n1 teaspoon herb salt\n\n\n1 tablespoon chopped capers\n\n\n1 sprig fresh parsley, chopped\n\n\n½  lemon, zested\n\n\n3  zucchini, peeled and grated\n\n\n2  carrots, peeled and grated\n\n\n½  yellow bell pepper, cut into cubes\n\n\n½  red bell pepper, cut into cubes\n\n\n1  lemon, juiced\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and rice to a boil in a saucepan. Reduce heat to medium-low, cover, and simmer until rice is tender and liquid has been absorbed, 18 to 20 minutes. Remove from heat and pour enough cold water on top of the cooked rice to cover it. Stir to cool. Drain well; transfer rice into a bowl. Stir in 1 tablespoon olive oil and season with herb salt."},{"recipe_directions":"Mix capers, parsley, and lemon zest in a small bowl; add to rice. Mix in zucchini, carrots, yellow bell pepper, and red bell pepper. Season with remaining 1 tablespoon olive oil, lemon juice, and salt."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Rice Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"455\nCalories\n\n\n8g \nFat\n\n\n88g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699642235-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/w6K4RL-qQy8e_q3paRHSaorMzUA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(646x0:648x2):format(webp)/Instant-Pot-Spanish-Chicken-and-Rice-e0d1f60c2566460f84d95bb20e7a9924.jpg"
@@ -1701,59 +1950,55 @@
 14 Mediterranean Diet Recipes to Make in Your Instant Pot</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/mediterranean-diet-recipes-for-the-instant-pot/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>14 Mediterranean Diet Recipes to Make in Your Instant Pot</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Want a quick and easy way to make good-for-you recipes? Well, here's how you can easily combine the healthful eating guidelines of the Mediterranean diet with the time-saving convenience of a multi-cooker. To get you started, I'll share a quick overview of the Mediterranean diet plus easy recipes you can make in your Instant Pot or pressure cooker."},{"recipe_directions":"What is the Mediterranean diet? This popular healthy eating plan emphasizes whole foods, fresh vegetables and fruits, whole grains, healthy fats such as olive oil and avocado, and proteins such as chicken, seafood, nuts, beans, and legumes. In addition, you'll cut back on added sugars and processed foods, and eat dairy in moderation. You'll also cut back on added salt by using fresh and dried herbs to flavor your food instead."},{"recipe_directions":"What are the health benefits of the Mediterranean diet? According to the Mayo Clinic, following this eating style can result in a longer life expectancy and lower rates of chronic diseases. In fact, it's been consistently ranked among the best diets overall."},{"recipe_directions":"Do I have to eat only Mediterranean food on the Mediterranean diet? Not at all. There are many international cuisines that happen to fall within the guidelines, including Asian and Mexican food. Just be sure you make healthy ingredient choices, such as chicken or seafood instead of pork or red meat, olive oil instead of coconut oil or lard, low-sodium broths, and more herbs instead of added salt."},{"recipe_directions":"\"I've made this recipe twice in the last month and we just love it! The Instant Pot makes it so easy. The only change I made the second time around was to cut the beans back by half a cup (this seemed to make the bean consistency less tough), increased the broth by a quarter cup and used a mixture of chicken breast and thighs. The flavor of this is amazing and it's just so hearty and perfect for chilly weather days!\" — Heidi Nelson Thomas"},{"recipe_directions":"To keep this easy recipe more in line with the Mediterranean diet, you can reduce the salt by cutting back on the bouillon cubes and bumping up the herbs. \"Flavors meld together like they've been simmering all day in a fraction of the time,\" says kirby1kat. \"A couple of small changes: I season the chicken prior to sauteeing. Instead of chicken bouillon cubes, I started using Better Than Bouillon Chicken Base as it contains much less salt and seems to have more flavor.\""},{"recipe_directions":"\"I loved it! Super tasty, I did not change anything, and it was perfect!\" says Ildo76. \"I was worried about not putting salt into it, but it was great as is!\""},{"recipe_directions":"Mediterranean diet guidelines suggest you eat fish twice a week. With this easy recipe, you'll be able to stock up and freeze salmon when it's on sale, and cook it easily from frozen. \"Salmon doesn't get much easier than this!\" says thedailygourmet. \"This turned out so moist and I like how it can be seasoned to individual preference.\""},{"recipe_directions":"Be sure to choose low-sodium chicken broth for this easy recipe. While the skin might not be as crispy as what you'll get with an oven-roasted chicken, you'll still end up with plenty of tender chicken meat to use in recipes using rotisserie chicken."},{"recipe_directions":"\"Tried it with my pressure cooker and it was delicious,\" says yocook. \"I also added 1/2 tsp of curry and a couple handfuls of frozen kale. We ate it over some brown rice and even my 6-yr-old loved it!\""},{"recipe_directions":"\"You can have posole without having to stand over the stove for hours. Let your multi-functional pressure cooker do the work for you. Garnish with avocado slices, lime wedges, sliced radish, jalapeno slices, and/or tortilla strips,\" says Soup Loving Nicole. (May we suggest baked tortilla chips instead of fried?)"},{"recipe_directions":"\"I made it pretty much 'as is' other than I kept the olives whole and roughly chopped the onion. Delicious! I'll make it again,\" says Judy Good."},{"recipe_directions":"Sort and rinse dried Great Northern beans, then add them to the Instant Pot with chicken broth, diced onions and garlic, bay leaves, and olive oil. Cook with high pressure 25 minutes. Then add carrots, celery, and prosciutto and cook for another 10 or 15 minutes. \"An Instant Pot® is certainly handy when it comes to dried beans,\" says Bibi. \"With less than 1 hour of active cooking time, this soup recipe is delicious and filling.\""},{"recipe_directions":"\"My first thought was maybe I should cut back on the spices cuz it seemed so much, but I am certainly glad I did not!\" says CCCooks. \"Followed recipe &amp; since I eat dairy free diet, used vegan butter &amp; left out yogurt &amp; this recipe is amazing! I'd give it 10 stars if I could...just that awesome!!\""},{"recipe_directions":"This Moroccan-inspired chicken tagine is made for the Instant Pot, so dinner's ready in less than an hour! Chicken thighs combine with butternut squash, spinach, garlic, and spices."},{"recipe_directions":"\"You don't have to soak beans when using an electric pressure cooker. Adjust the spices to your liking in this healthier, easy-to-make black bean soup that freezes well,\" says bd.weld."},{"recipe_directions":"\"This delicious arroz-con-pollo-esque dish is so easy to make with the Instant Pot,\" says Diana71. \"Colorful, appetizing, and nourishing, this meal comes together in a flash and is chock full of flavor! I hope it becomes your next favorite weeknight meal. Squeeze lime or lemon wedges over if you like!\""},{"recipe_directions":"\"Typical autumn flavors from Northern Italy mixed with gluten-free pasta will warm you on a cool evening,\" says Buckwheat Queen. \"Use any shape pasta you desire, even broken spaghetti works. If desired, the soup without the pasta will freeze wonderfully. Just cook the pasta in the soup once thawed.\""},{"recipe_directions":"Related Recipes:"}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Instant Pot¨"},{"recipe_tags":"Main Dishes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699642244-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jbq1mQ56-PQ4Im3D_BBrlURHFuw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/435466-ac956f60481a420aa2ab52cdecaacf55.jpg"
@@ -1766,59 +2011,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19777/garlic-and-herb-marinade/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Garlic and Herb Marinade</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n8 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup water\n\n\n⅓ cup vinegar\n\n\n⅓ cup vegetable oil\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon dried thyme\n\n\n1 teaspoon dried Italian-style seasoning\n\n\n1 teaspoon poultry seasoning\n\n\n1 teaspoon dried rosemary, crushed\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup water\n\n\n⅓ cup vinegar\n\n\n⅓ cup vegetable oil\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon dried thyme\n\n\n1 teaspoon dried Italian-style seasoning\n\n\n1 teaspoon poultry seasoning\n\n\n1 teaspoon dried rosemary, crushed\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, combine the water, vinegar, oil, garlic, thyme, Italian-style seasoning, poultry seasoning, rosemary, salt and ground black pepper. Mix well and apply to your favorite meat."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Marinade Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699642253-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/93ONZYNsV2a2T6K3pfC9rxjEGz4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/220541-ed7ca4d47d314457b171f13a237e6c0e.jpg"
@@ -1831,59 +2072,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12072/greek-chicken-pasta/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Greek Chicken Pasta</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package linguine pasta\n\n\n½ cup chopped red onion\n\n\n1 tablespoon olive oil\n\n\n2 cloves garlic, crushed\n\n\n1 pound skinless, boneless chicken breast meat - cut into bite-size pieces\n\n\n1 (14 ounce) can marinated artichoke hearts, drained and chopped\n\n\n1 large tomato, chopped\n\n\n½ cup crumbled feta cheese\n\n\n3 tablespoons chopped fresh parsley\n\n\n2 tablespoons lemon juice\n\n\n2 teaspoons dried oregano\n\n\n  salt and pepper to taste\n\n\n2  lemons, wedged, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package linguine pasta\n\n\n½ cup chopped red onion\n\n\n1 tablespoon olive oil\n\n\n2 cloves garlic, crushed\n\n\n1 pound skinless, boneless chicken breast meat - cut into bite-size pieces\n\n\n1 (14 ounce) can marinated artichoke hearts, drained and chopped\n\n\n1 large tomato, chopped\n\n\n½ cup crumbled feta cheese\n\n\n3 tablespoons chopped fresh parsley\n\n\n2 tablespoons lemon juice\n\n\n2 teaspoons dried oregano\n\n\n  salt and pepper to taste\n\n\n2  lemons, wedged, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook pasta in boiling water until tender yet firm to the bit, 8 to 10 minutes; drain."},{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat. Add onion and garlic; saute until fragrant, about 2 minutes. Stir in the chicken and cook, stirring occasionally, until chicken is no longer pink in the center and the juices run clear, about 5 to 6 minutes."},{"recipe_directions":"Reduce heat to medium-low; add artichoke hearts, tomato, feta cheese, parsley, lemon juice, oregano, and cooked pasta. Cook and stir until heated through, about 2 to 3 minutes. Remove from heat, season with salt and pepper, and garnish with lemon wedges."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Greek"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"488\nCalories\n\n\n11g \nFat\n\n\n70g \nCarbs\n\n\n33g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699642263-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ayPzSGC7hgdwZ0zgRKEDWquTXBI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/809293-e9a99791aee941ab86ba286c6155fadb.jpg"
@@ -1896,59 +2133,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/169583/mediterranean-quinoa-salad/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Mediterranean Quinoa Salad</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n2 cubes  chicken bouillon\n\n\n1 clove garlic, smashed\n\n\n1 cup uncooked quinoa\n\n\n2 large cooked chicken breasts - cut into bite size pieces\n\n\n1 large red onion, diced\n\n\n1 large green bell pepper, diced\n\n\n½ cup chopped kalamata olives\n\n\n½ cup crumbled feta cheese\n\n\n¼ cup chopped fresh parsley\n\n\n¼ cup chopped fresh chives\n\n\n½ teaspoon salt\n\n\n⅔ cup fresh lemon juice\n\n\n1 tablespoon balsamic vinegar\n\n\n¼ cup olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n2 cubes  chicken bouillon\n\n\n1 clove garlic, smashed\n\n\n1 cup uncooked quinoa\n\n\n2 large cooked chicken breasts - cut into bite size pieces\n\n\n1 large red onion, diced\n\n\n1 large green bell pepper, diced\n\n\n½ cup chopped kalamata olives\n\n\n½ cup crumbled feta cheese\n\n\n¼ cup chopped fresh parsley\n\n\n¼ cup chopped fresh chives\n\n\n½ teaspoon salt\n\n\n⅔ cup fresh lemon juice\n\n\n1 tablespoon balsamic vinegar\n\n\n¼ cup olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring the water, bouillon cubes, and garlic to a boil in a saucepan. Stir in the quinoa, reduce heat to medium-low, cover, and simmer until the quinoa is tender and the water has been absorbed, 15 to 20 minutes. Discard the garlic clove and scrape the quinoa into a large bowl."},{"recipe_directions":"Gently stir the chicken, onion, bell pepper, olives, feta cheese, parsley, chives, and salt into the quinoa. Drizzle with the lemon juice, balsamic vinegar, and olive oil. Stir until evenly mixed. Serve warm or refrigerate and serve cold."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Quinoa Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"278\nCalories\n\n\n14g \nFat\n\n\n20g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699642271-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Scm6xB45A0_qDqUtBE45lYIC6-c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1391x0:1393x2):format(webp)/9392571-a5a314ab691d4e2fb75e81fceaa8a077.jpg"
@@ -1961,59 +2194,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264181/pan-fried-fennel/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Pan-Fried Fennel</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds fennel bulbs, sliced, green tops reserved\n\n\n3 tablespoons olive oil, or as needed\n\n\n  salt to taste\n\n\n1 pinch lemon pepper, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds fennel bulbs, sliced, green tops reserved\n\n\n3 tablespoons olive oil, or as needed\n\n\n  salt to taste\n\n\n1 pinch lemon pepper, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Chop fennel greens and set aside."},{"recipe_directions":"Heat 1 tablespoon oil in a nonstick pan over medium heat. Lay some fennel slices in a single layer in the pan; cook until nicely browned on both sides, about 5 minutes. Season with salt and lemon pepper. Remove from pan. Add another tablespoon oil and layer in the next batch of fennel slices and cook the same way. Repeat with remaining oil and fennel. Serve sprinkled with fennel greens."},{"recipe_directions":"Instead of lemon pepper, you can use salt, pepper, and a bit of lemon zest."},{"recipe_directions":"When I am in a rush, I use 2 pans simultaneously to saute the fennel."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"160\nCalories\n\n\n11g \nFat\n\n\n17g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699642278-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UTbP7q2sOBAWdgm7LefYUQzl8a0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(149x0:151x2):format(webp)/2423808_Roasted-Tomato-Balsamic-Vinaigrette_Photo-by-lutzflcat-300x2721-23b0dedd51af4d969157e358cdc8e009.jpg"
@@ -2025,59 +2254,55 @@
 24 Clean Eating Recipes to Make You a Lean, Mean, Clean-Eating Machine</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/23-recipes-to-make-you-a-lean-mean-clean-eating-machine/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>24 Clean Eating Recipes to Make You a Lean, Mean, Clean-Eating Machine</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Clean Eating is simple. Essentially, clean eating is about eating more healthy foods and fewer unhealthy, heavily processed or refined foods and foods with added sugars and unhealthy fats. When we talk about healthy clean eating recipes, we're talking fresh, whole ingredients, organic and eaten in season when possible, and prepared in unfussy ways that highlight natural flavors."},{"recipe_directions":"You've heard Michael Pollan's maxim: \"Eat food. Not too much. Mostly plants.\" That's kind of the essence of clean eating, too. And if you're doing the Mediterranean Diet, you're already eating clean."},{"recipe_directions":"Clean eating is eating close to nature, without too much human or industrial interference along the way."},{"recipe_directions":"Here's a simple way to determine if food fits the clean-eating concept. Consult the label. For starters, if it has a label, it may not be clean. But if it's a can of beans or tomatoes with only one or two ingredients, that's clean. Longer ingredient lists filled with unpronounceable words? Not so much."},{"recipe_directions":"There's no rigid regime to follow. Organic produce and grass-fed meats are preferred. Breads are brown and made from whole grains. Healthy fats are favored, including olive and nut oils. Added sugars, salt, and additives are out, as are trans-fats and highly processed and refined foods. Simple ingredients, simple preparations. You get the idea."},{"recipe_directions":"Now let's grab a glass of red wine, sit down with friends and family, and enjoy some simple clean eating recipes."},{"recipe_directions":"Tomato Basil Salmon"},{"recipe_directions":"Clean eating salmon recipes benefit from being healthy and, generally speaking, simple to prepare -- since the best salmon recipes treat the fish with a light touch. \"This quick salmon dish is perfect for a weeknight dinner,\" says CHEDDAR97005. \"Serve with a side of sauteed spinach and a glass of pinot noir.\""},{"recipe_directions":"Roasted Pork Tenderloin with Fresh Plum Sauce"},{"recipe_directions":"This delicious, colorful roasted pork tenderloin dish works great with any stone fruit. It's one of our favorite clean eating meat recipes."},{"recipe_directions":"Alaskan Cod and Shrimp with Fresh Tomato"},{"recipe_directions":"\"This meal is very yummy, juicy, easy to cook, and convenient,\" says maddy cruise. \"My fiancee loves this recipe and wants it everyday. Try it!\""},{"recipe_directions":"Simple Lemon Herb Chicken"},{"recipe_directions":"Here's another in a long list of easy clean eating recipes for beginners and expert cooks alike. \"This is a simple, quick and delicious dish,\" says Carolyn. \"All you need are a few spices and, of course, the chicken! Add more or less spice according to your taste. Enjoy!\""},{"recipe_directions":"Grilled Rosemary Chicken Breast"},{"recipe_directions":"Another big hit among the clean eating chicken breast recipes. \"This easy, quick, and light dish has exceptional flavor,\" says Semigourmet. \"The rosemary plays perfectly with strong garlic flavor and a hint of lemon for bright fresh flavor.\""},{"recipe_directions":"Greek Island Chicken Shish Kebabs"},{"recipe_directions":"\"Excellent served with pita bread, a garlicky tzatziki, and a Greek salad,\" says Dolce Cuoco. \"Lamb can be substituted for the chicken, and many variations on vegetables can be used.\""},{"recipe_directions":"Summer Chicken Burgers"},{"recipe_directions":"Avocado clean eating recipes are always a favorite! These mouthwatering grilled chicken burgers feature caramelized onion, provolone cheese, and avocado slices."},{"recipe_directions":"Find more of our favorite clean eating chicken recipes."},{"recipe_directions":"Lentil Soup"},{"recipe_directions":"Always a favorite vegetarian clean eating recipe, this hearty lentil soup is \"chock full of veggies and very yummy,\" says Marie."},{"recipe_directions":"Very Easy Mushroom Barley Soup"},{"recipe_directions":"\"I love mushroom barley soup and I was originally making one that took about 3 hours to cook,\" SANDI149. \"This one is so simple and easy and takes a third of the time. If you like mushroom barley soup, you will really like this. It's perfect for a cold winter night.\""},{"recipe_directions":"Bilo Walter's Easy Herb Potatoes"},{"recipe_directions":"Grill or bake red potatoes with Vidalia onion wedges and carrots marinated in olive oil, balsamic vinegar, garlic salt, and rosemary."},{"recipe_directions":"Fresh Green Bean Salad"},{"recipe_directions":"\"A crisp, fresh-vegetable salad with a simple oil-and-vinegar dressing,\" says Coyote House."},{"recipe_directions":"Roasted Garlic Cauliflower"},{"recipe_directions":"Cauliflower is tossed with olive oil and garlic sprinkled with Parmesan and broiled until tender and golden brown."},{"recipe_directions":"Greek-Style Lemon Roasted Potatoes"},{"recipe_directions":"\"A great complement with souvlaki,\" says koko. \"All you need is a great Greek salad for a full meal!\""},{"recipe_directions":"Butternut Squash with Grapes"},{"recipe_directions":"In this savory side dish, butternut squash, seedless red grapes, and sweet onions are roasted with pine nuts and sage leaves."},{"recipe_directions":"Grilled Green Beans"},{"recipe_directions":"So easy. Simply season green beans with salt and minced garlic, then toss on the hot grill."},{"recipe_directions":"All Kale Caesar"},{"recipe_directions":"Here's a quick and easy kale Caesar with a tangy anchovy-infused dressing and ribbons of nutritious kale. \"This kale salad recipe is very quick and simple,\" says thisgirllikesfood2003. \"Pour remaining dressing into a container, cover, and refrigerate up to 2 weeks.\""},{"recipe_directions":"Cranberry and Cilantro Quinoa Salad"},{"recipe_directions":"Toss cooked, cooled quinoa with toasted almonds, dried cranberries, colorful bell peppers, and red onions and dress with a curry powder, cilantro, and lime juice dressing."},{"recipe_directions":"Zucchini Mint Salad"},{"recipe_directions":"A refreshing zucchini salad dressed with a fresh mint, lemon juice, and olive oil dressing."},{"recipe_directions":"Crunchy Cauliflower and Tomato Salad"},{"recipe_directions":"Cherry tomatoes and crunchy cauliflower combine for a festive salad with a light, lemon juice, white wine vinegar, and olive oil dressing."},{"recipe_directions":"Mediterranean Bean Salad"},{"recipe_directions":"\"This is an easy, healthy salad that is a great side dish to BBQ chicken, beef or fish,\" says sourdough girl. \"It can also be easily adapted to a Tex-Mex style by changing the lemon to lime, parsley to cilantro and adding ground cumin and/or chili powder!\""},{"recipe_directions":"Megan's Granola"},{"recipe_directions":"A tasty homemade granola with oats, nuts, seeds, and dried fruits."},{"recipe_directions":"Tomato and Egg Stir Fry"},{"recipe_directions":"A quick-and-easy egg and tomato stir fry in avocado oil."},{"recipe_directions":"Mini Frittatas with Quinoa"},{"recipe_directions":"Simple savory bites of quinoa, zucchini, ham, egg, and cheese."},{"recipe_directions":"Homemade Peanut Butter"},{"recipe_directions":"Peanut oil and honey roasted peanuts whirled around in a food processor until smooth -- it's so easy to make your own peanut butter."},{"recipe_directions":"Want more clean eating diet recipes? Check out more of our Best Clean Eating Recipes."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Clean Eating Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699642287-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Dvz7YgCul5Vo2YoxP2vWzRqKWs0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5263452-basic-marinara-for-the-instant-pot-lutzflcat-4x3-1-dc4719ad8fe148d3b2fbde4a16afd49a.jpg"
@@ -2091,59 +2316,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263334/basic-marinara-for-the-instant-pot/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Basic Marinara for the Instant Pot</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 cup diced onion\n\n\n1 tablespoon minced garlic\n\n\n¼ cup dry red wine\n\n\n1 (28 ounce) can diced tomatoes\n\n\n1 (28 ounce) can whole peeled tomatoes\n\n\n1 tablespoon dried basil\n\n\n1 tablespoon dried oregano\n\n\n1 tablespoon dried parsley\n\n\n¾ teaspoon sea salt\n\n\n  freshly ground black pepper to taste\n\n\n1 pinch red pepper flakes\n\n\n1  bay leaf"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 cup diced onion\n\n\n1 tablespoon minced garlic\n\n\n¼ cup dry red wine\n\n\n1 (28 ounce) can diced tomatoes\n\n\n1 (28 ounce) can whole peeled tomatoes\n\n\n1 tablespoon dried basil\n\n\n1 tablespoon dried oregano\n\n\n1 tablespoon dried parsley\n\n\n¾ teaspoon sea salt\n\n\n  freshly ground black pepper to taste\n\n\n1 pinch red pepper flakes\n\n\n1  bay leaf'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot) and select Saute function to heat the pot. Add olive oil and onion; cook until onion is translucent, 3 to 5 minutes. Add garlic and cook until fragrant, about 1 minute. Pour in red wine and simmer until reduced by half."},{"recipe_directions":"Pour diced tomatoes and whole tomatoes into the pot. Bring to a simmer. Stir in basil, oregano, parsley, salt, pepper, red pepper flakes, and bay leaf. Press Keep Warm. Close and lock the lid. Seal the vent. Select Manual function and set timer for 10 minutes. Allow 10 to 15 minutes for the pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid. Discard bay leaf. Use an immersion blender to puree the sauce."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Sauces"},{"recipe_tags":"Pasta Sauces"},{"recipe_tags":"Tomato"},{"recipe_tags":"Marinara"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"115\nCalories\n\n\n5g \nFat\n\n\n14g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699642293-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ShQAwxLIXPkPAFJsXvR0IG43mzw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/Zucchini-with-Egg-5a0637d3ef8243cc88db7e6e3528d2cc.jpg"
@@ -2155,59 +2376,55 @@
 15 Best Mediterranean Diet Breakfast Recipes</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/best-mediterranean-diet-breakfast-recipes/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>15 Best Mediterranean Diet Breakfast Recipes</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"It's easy to follow the Mediterranean diet at dinner or lunch. But don't sleep on breakfast! The principles of the Mediterranean diet are the same in the morning as for any other time—choose healthy whole foods, including lots of fruits and veggies, and limit heavily processed foods and saturated fats. Where you can, use healthy olive oil as the cooking fat or to drizzle over breakfast scrambles, whole-wheat toasts, and more. Go big on healthy seasonal vegetables where you can—and enjoy some sliced fruit on the side or as a snack. Here's what you eat for breakfast on the Mediterranean diet."},{"recipe_directions":"Perch poached eggs atop slices of tomato and mozzarella cheese and English muffins slathered in pesto. \"Absolutely delicious!\" says Rhianna. \"I made my own fabulous fresh pesto to top the poached egg. The egg poached nicely.\" Stephany, meanwhile, added turkey bacon and used whole wheat English muffins."},{"recipe_directions":"Start the day off with a healthy medley of greens: arugula, chard, and spinach. \"This was a nice way to add some veg to breakfast,\" says lovestohost. \"This would make a really nice egg component to a breakfast sandwich.\""},{"recipe_directions":"Spread pesto over pita rounds; top with crispy bacon, scrambled eggs, chopped tomato, mushrooms, and spinach. And garnish with slices of avocado if you like."},{"recipe_directions":"Traditional Italian caprese salad tops lightly toasted bread. \"Fresh ingredients are key to this recipe,\" says hamalpn. Meanwhile, Dianne recommends drizzling a balsamic glaze over the top. \"And the garlic rubbed on the toast is essential,\" she says."},{"recipe_directions":"Here's nutty cinnamon quinoa with dates, apricots, toasted almonds, and honey. \"A fantastic dish!\" raves Robin Hartman. \"The perfect combination of sweet, salty, and nutty. Great texture. Wasn't too heavy or too light, perfect for a breakfast dish and held me over just fine until lunch time. Definitely a wonderful dish to start the day with.\""},{"recipe_directions":"Spinach, mushrooms, and cream cheese are scrambled up with eggs and garlic. \"Yummy!\" says naples34102. \"I NEVER say yummy, but in this case, it was the first word that entered my mind when I thought about how I'd describe this. Maybe it's because I love spinach, mushrooms, and garlic, and particularly when all three are used at once.\""},{"recipe_directions":"This North African one-dish-meal features a spicy tomato and pepper sauce slowly simmered and finished with eggs on top. \"Fast, easy, and delicious,\" says Chef John. \"Be sure to cook your sauce until the veggies are nice and soft and sweet. Once the eggs go in, you can finish covered on the stove, or just pop the pan into a hot oven until they cook to your liking.\""},{"recipe_directions":"Quinoa gets up for breakfast, starring here as a hot cereal with apricots, almonds, flax seeds, and warm spices. \"A nice change from the usual bowl of oatmeal, this is jam-packed with nutrients and energy!\" says laur_218. \"Serve warm with milk. If sweetness is desired, add a splash of maple syrup or honey.\""},{"recipe_directions":"Something like a caprese salad with an egg on it sandwiched between whole-wheat English muffins. Molly calls it \"a quick and easy breakfast with whole grain muffins, egg whites, spinach, and fresh tomato.\""},{"recipe_directions":"Scrambled eggs mix it up with spinach, sun-dried tomatoes, and feta cheese before getting wrapped up in a warm whole-wheat tortilla."},{"recipe_directions":"Why not saute zucchini before scrambling your eggs? This one-pan breakfast couldn't be easier."},{"recipe_directions":"\"The contrast between the soft and fresh avocado and the creaminess of a poached egg is brilliant. Good thing is, it's also very healthy and satisfying.\" — NYJEN"},{"recipe_directions":"\"A fantastic salad I got from a Portuguese restaurant,\" recipe creator Ilovefood says. Finish it off with chopped boiled eggs."},{"recipe_directions":"\"Socca is a gluten-free, yeast-free, and vegan flatbread that is a specialty from the French city of Nice,\" Cannelle says."},{"recipe_directions":"\"Sweet blueberries and tart lemon pair well in this alternative to oatmeal. High in protein and fiber, quinoa is a great start to your day,\" says recipe creator France C."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Mediterranean Diet Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699642301-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uTI2NhJ2flSarPWHLKegrJBsbHE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5221629-salmon-tartare-grubdaily-4x3-1-ad89b877d03443eb9cf97fd8d4387f6f.jpg"
@@ -2221,59 +2438,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263215/salmon-tartare/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Salmon Tartare</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (5 ounce) very fresh salmon fillet\n\n\n1 teaspoon minced shallot\n\n\n1 teaspoon minced fresh flat-leaf parsley\n\n\n1 teaspoon minced fresh chives\n\n\n1 teaspoon minced cornichon (small pickled cucumber)\n\n\n1 teaspoon fresh lemon juice, or more to taste\n\n\n  sea salt and freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (5 ounce) very fresh salmon fillet\n\n\n1 teaspoon minced shallot\n\n\n1 teaspoon minced fresh flat-leaf parsley\n\n\n1 teaspoon minced fresh chives\n\n\n1 teaspoon minced cornichon (small pickled cucumber)\n\n\n1 teaspoon fresh lemon juice, or more to taste\n\n\n  sea salt and freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Remove salmon skin and cut out the grey-colored bloodline so you have only the shiny pink flesh. Cut salmon into small cubes and place in a bowl."},{"recipe_directions":"Stir in shallot, parsley, chives, pickle, lemon juice, sea salt, and pepper. Let marinate for 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"133\nCalories\n\n\n8g \nFat\n\n\n1g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699642307-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hyZyRzlQ2Vm3tO5rNfxlRQcsb6Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1015891-778d539bfe044dd18c717fc79b886e1b.jpg"
@@ -2286,59 +2499,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218989/mediterranean-kale/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Mediterranean Kale</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12 cups chopped kale\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon olive oil, or as needed\n\n\n1 tablespoon minced garlic\n\n\n1 teaspoon soy sauce\n\n\n  salt to taste\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12 cups chopped kale\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon olive oil, or as needed\n\n\n1 tablespoon minced garlic\n\n\n1 teaspoon soy sauce\n\n\n  salt to taste\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a steamer insert into a saucepan, and fill with water to just below the bottom of the steamer. Cover, and bring the water to a boil over high heat. Add the kale, recover, and steam until just tender, 7 to 10 minutes depending on thickness."},{"recipe_directions":"Whisk together the lemon juice, olive oil, garlic, soy sauce, salt, and black pepper in a large bowl. Toss steamed kale into dressing until well coated."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"91\nCalories\n\n\n3g \nFat\n\n\n15g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699642314-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PwZx4dxEWJAPtvmJKFSex29MwFA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2218x1632:2220x1634):format(webp)/71600-easy-arugula-salad-natasha-titanov-4x3-0a343755e0364a11bedf323c3056a35a.jpg"
@@ -2352,59 +2561,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/71600/easy-arugula-salad/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Easy Arugula Salad</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups young arugula leaves, rinsed and dried\n\n\n1 cup cherry tomatoes, halved\n\n\n¼ cup pine nuts\n\n\n¼ cup grated Parmesan cheese\n\n\n2 tablespoons grapeseed or olive oil\n\n\n1 tablespoon rice vinegar\n\n\nsalt and freshly ground black pepper to taste\n\n\n1 large avocado - peeled, pitted, and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups young arugula leaves, rinsed and dried\n\n\n1 cup cherry tomatoes, halved\n\n\n¼ cup pine nuts\n\n\n¼ cup grated Parmesan cheese\n\n\n2 tablespoons grapeseed or olive oil\n\n\n1 tablespoon rice vinegar\n\n\nsalt and freshly ground black pepper to taste\n\n\n1 large avocado - peeled, pitted, and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine arugula, tomatoes, pine nuts, Parmesan, oil, and vinegar in a large, lidded plastic bowl. Season with salt and pepper, then cover with the lid and shake to mix."},{"recipe_directions":"Divide salad onto serving plates and top with avocado slices."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Arugula Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"257\nCalories\n\n\n23g \nFat\n\n\n10g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699642319-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XlqZagEyvrKC21YOv_-R84wgCp4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5488514-3dd8b8ffadde4dedafb266803650b728.jpg"
@@ -2417,59 +2622,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265520/easy-pan-fried-zucchini/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Easy Pan-Fried Zucchini</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  zucchini, cut into 1/4-inch slices\n\n\n1 clove garlic, peeled\n\n\n1 large egg, beaten\n\n\n2 tablespoons all-purpose flour\n\n\n2 tablespoons dry bread crumbs, or more as needed\n\n\n2 tablespoons olive oil, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  zucchini, cut into 1/4-inch slices\n\n\n1 clove garlic, peeled\n\n\n1 large egg, beaten\n\n\n2 tablespoons all-purpose flour\n\n\n2 tablespoons dry bread crumbs, or more as needed\n\n\n2 tablespoons olive oil, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rub zucchini slices with garlic; set aside."},{"recipe_directions":"Place beaten egg, flour, and bread crumbs separately into 3 small bowls."},{"recipe_directions":"Turn zucchini slices in flour, dusting off excess. Dip in egg, then press in bread crumbs to coat."},{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat and pan-fry breaded zucchini in batches in hot oil until lightly browned on both sides, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"},{"recipe_tags":"Fried Zucchini Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"227\nCalories\n\n\n17g \nFat\n\n\n14g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699642325-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6_rXqqkvceGeKN0uHrPE0si8Dxs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6778924-grilled-sweet-potato-wedges-France-C-4x3-1-90ad14c8892441b8b8dd898fd9a8edb9.jpg"
@@ -2483,59 +2684,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274391/grilled-sweet-potato-wedges/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Grilled Sweet Potato Wedges</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  medium sweet potatoes\n\n\n¼ cup olive oil, divided\n\n\n½ teaspoon smoked paprika\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon cayenne pepper"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  medium sweet potatoes\n\n\n¼ cup olive oil, divided\n\n\n½ teaspoon smoked paprika\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon cayenne pepper'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Scrub sweet potatoes thoroughly under cold running water. Cut each potato lengthwise into 8 wedges. Place wedges in a bowl and toss with 2 tablespoons of oil. Combine remaining olive oil, paprika, salt, garlic powder, cinnamon, and cayenne in a separate small bowl."},{"recipe_directions":"Place wedges on the grill perpendicular to the grates and reduce heat to low. Grill over low heat, turning occasionally, until potatoes are soft, 16 to 18 minutes. Brush wedges with oil mixture on both sides, and grill 1 to 2 minutes more, then transfer to a plate."},{"recipe_directions":"Two medium-sized sweet potatoes are about 1 pound. There is no need to peel the sweet potatoes."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"177\nCalories\n\n\n14g \nFat\n\n\n13g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699642329-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F8KVIwRJ_zpiVzVjg0rr43XkV4k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2294204-8ea9fa0eee3b42f292a1f3fffeb25f05.jpg"
@@ -2548,59 +2745,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24797/mediterranean-chicken-with-eggplant/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Mediterranean Chicken with Eggplant</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n50 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n5 \n\n\nYield:\n4 to 6 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  eggplants, peeled and cut lengthwise into 1/2 inch thick slices\n\n\n3 tablespoons olive oil\n\n\n6  skinless, boneless chicken breast halves - diced\n\n\n1  onion, diced\n\n\n2 tablespoons tomato paste\n\n\n½ cup water\n\n\n2 teaspoons dried oregano\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  eggplants, peeled and cut lengthwise into 1/2 inch thick slices\n\n\n3 tablespoons olive oil\n\n\n6  skinless, boneless chicken breast halves - diced\n\n\n1  onion, diced\n\n\n2 tablespoons tomato paste\n\n\n½ cup water\n\n\n2 teaspoons dried oregano\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place eggplant strips in a big pot of lightly salted water and soak for 30 minutes (this will improve the taste; they will leave a brown color in the pot)."},{"recipe_directions":"Remove eggplant from pot and brush lightly with olive oil. Saute or grill until lightly browned and place in a 9x13 inch baking dish. Set aside."},{"recipe_directions":"Saute diced chicken and onion in a large skillet over medium heat. Stir in tomato paste and water, cover skillet, reduce heat to low and simmer for 10 minutes."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Pour chicken/tomato mixture over eggplant. Season with oregano, salt and pepper and cover with aluminum foil. Bake in the preheated oven for 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"},{"recipe_tags":"Healthy Chicken"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"336\nCalories\n\n\n11g \nFat\n\n\n27g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699642340-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/K4OlYQRQYHUqe0NZVT1pXruIhKE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(315x416:317x418):format(webp)/2973067-broiled-spanish-mackerel-myomi-4x3-1-76a0878277584080961c45d07ffffa80.jpg"
@@ -2614,59 +2807,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217274/broiled-spanish-mackerel/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Broiled Spanish Mackerel</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 3-ounce fillets"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 (3 ounce) fillets Spanish mackerel fillets\n\n\n¼ cup olive oil\n\n\n½ teaspoon paprika\n\n\n  salt and ground black pepper to taste\n\n\n12 slices  lemon"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 (3 ounce) fillets Spanish mackerel fillets\n\n\n¼ cup olive oil\n\n\n½ teaspoon paprika\n\n\n  salt and ground black pepper to taste\n\n\n12 slices  lemon'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven's broiler and set the oven rack about 6 inches from the heat source. Lightly grease a baking dish."},{"recipe_directions":"Rub both sides of each mackerel fillet with olive oil and place with the skin side down into the prepared baking dish. Season each fillet with the paprika, salt, and pepper. Top each fillet with two lemon slices."},{"recipe_directions":"Bake the fillets under the broiler until the fish just begins to flake, 5 to 7 minutes. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"259\nCalories\n\n\n21g \nFat\n\n\n3g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699642344-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vihzuy9SdJiuZffcTjs9zae3Beg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6646293-f317ce88d371458b97d20ecc40e4a002.jpg"
@@ -2679,59 +2868,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260445/easy-mediterranean-baked-chicken-breast/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Easy Mediterranean Baked Chicken Breast</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (8 ounce) skinless, boneless chicken breasts\n\n\n  salt and freshly ground black pepper\n\n\n¼ cup olive oil\n\n\n¼ cup freshly squeezed lemon juice\n\n\n1 clove garlic, minced\n\n\n½ teaspoon dried oregano, or more to taste\n\n\n¼ teaspoon dried thyme, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (8 ounce) skinless, boneless chicken breasts\n\n\n  salt and freshly ground black pepper\n\n\n¼ cup olive oil\n\n\n¼ cup freshly squeezed lemon juice\n\n\n1 clove garlic, minced\n\n\n½ teaspoon dried oregano, or more to taste\n\n\n¼ teaspoon dried thyme, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Season chicken breasts with salt and pepper on all sides and place in a bowl or lidded container. Combine olive oil, lemon juice, garlic, oregano, and thyme in a small bowl and pour marinade over chicken breasts. Marinate for 10 minutes at room temperature."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Set one oven rack about 6 inches from the heat source."},{"recipe_directions":"Place chicken breasts into a baking dish and pour marinade on top."},{"recipe_directions":"Bake chicken on the middle rack of the preheated oven until no longer pink in the center and the juices run clear, 35 to 45 minutes, depending upon thickness. Move baking dish to the top rack and broil chicken until well browned, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"501\nCalories\n\n\n33g \nFat\n\n\n4g \nCarbs\n\n\n47g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699642349-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bjd9M3GQdVuGIEJom9CK9Fg1vtQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3551901-6bf768c2f1cc4996ac17832cd6017864.jpg"
@@ -2744,59 +2929,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14341/good-for-you-greek-salad/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Easy Greek Salad</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large ripe tomatoes, chopped\n\n\n2 medium cucumbers, peeled and chopped\n\n\n1 small red onion, chopped\n\n\n¼ cup olive oil\n\n\n4 teaspoons lemon juice\n\n\n1 ½ teaspoons dried oregano\n\n\n  salt and pepper to taste\n\n\n1 cup crumbled feta cheese\n\n\n6  black Greek olives, pitted and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large ripe tomatoes, chopped\n\n\n2 medium cucumbers, peeled and chopped\n\n\n1 small red onion, chopped\n\n\n¼ cup olive oil\n\n\n4 teaspoons lemon juice\n\n\n1 ½ teaspoons dried oregano\n\n\n  salt and pepper to taste\n\n\n1 cup crumbled feta cheese\n\n\n6  black Greek olives, pitted and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss tomatoes, cucumbers, and red onion together in a shallow salad bowl. Drizzle oil and lemon juice over top, then sprinkle with oregano, salt, and pepper. Top with feta and olives."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"187\nCalories\n\n\n16g \nFat\n\n\n8g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699642356-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WoBBOdMJX4TFzunPH4kKDMo_Khg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/259870-briam-greek-baked-zucchini-and-potatoes-ddmfs-3X4-0250-dd806edf8bdf48b2ba841bf59d3a8b9e.jpg"
@@ -2810,59 +2991,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259870/briam-greek-baked-zucchini-and-potatoes/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Briam (Greek Baked Zucchini and Potatoes)</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds potatoes, peeled and thinly sliced\n\n\n4 medium zucchini, thinly sliced\n\n\n4 small red onions, thinly sliced\n\n\n6 ripe tomatoes, puréed\n\n\n½ cup extra-virgin olive oil\n\n\n2 tablespoons chopped fresh parsley (Optional)\n\n\n  sea salt and freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds potatoes, peeled and thinly sliced\n\n\n4 medium zucchini, thinly sliced\n\n\n4 small red onions, thinly sliced\n\n\n6 ripe tomatoes, puréed\n\n\n½ cup extra-virgin olive oil\n\n\n2 tablespoons chopped fresh parsley (Optional)\n\n\n  sea salt and freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients. Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Spread potatoes, zucchini, and red onions in an extra-large baking dish (9x13-inch or larger, or 2 baking dishes)."},{"recipe_directions":"Cover with puréed tomatoes, olive oil, and parsley; season liberally with sea salt and pepper. Toss until vegetables are evenly coated."},{"recipe_directions":"Bake in the preheated oven for 1 hour. Stir gently, then continue baking until vegetables are tender and moisture has evaporated, about 30 minutes more."},{"recipe_directions":"Cool briam slightly before serving or serve at room temperature."},{"recipe_directions":"You can purée the tomatoes by cutting them in half and grating them on a large box grater, leaving the skin behind."},{"recipe_directions":"This might seem like a lot of time in the oven, but trust me. The bulk of the flavor is derived from this, and you definitely want some nice crusty and charred edges on your vegetables for maximum flavor."},{"recipe_directions":"Don't be afraid of salt and pepper with this dish. Be liberal for best results. Start as you normally would, and you can always add more seasoning when you check after the 1-hour mark."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Greek"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"534\nCalories\n\n\n28g \nFat\n\n\n66g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699642362-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LGcA8ll7j1vyxIlWKk_YzqFMSk0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Briam-Greek-Baked-Zucchini-and-Potatoes--2000-9c960f9da3a14e93b5554605f1abaccd.jpg"
@@ -2874,59 +3051,55 @@
 30 Top-Rated Mediterranean Diet Recipes</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/best-mediterranean-diet-recipes/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>30 Top-Rated Mediterranean Diet Recipes</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"The Mediterranean diet is about eating whole foods, including lots of fruits and veggies, and limiting heavily processed foods and saturated fats. As far as health benefits, the Mediterranean diet has been shown to lower the risk of chronic diseases and increase life expectancy. And, with its emphasis on vegetables and whole foods, it may help you lose weight and then maintain the weight you want. These top-rated recipes showcase the best of Mediterranean cooking -- healthy whole foods, simple preparations, and wonderfully fresh flavors."},{"recipe_directions":"\"Deceptively simple and delicious,\" raves Maura Alia Badji. \"The two key instructions made all the difference. One: Salting and draining the cucumbers to get a note of crispness and lose the slight bitterness is a game-changer. Two: Adding the red wine vinegar and tossing before adding the olive oil allows the salad to soak up the vinegar instead of being made water-proof by adding oil first.\""},{"recipe_directions":"\"This is my favorite hummus recipe. It's easy to make, very inexpensive and I can adjust the garlic and cayenne pepper to suit my taste. I have this on hand all the time as a treat!\" — German Shepherd Mom"},{"recipe_directions":"\"These salmon fillets are simply seasoned with salt and pepper and pan-seared with capers, and garnished with slices of lemon.\" — Noreen421"},{"recipe_directions":"\"Vegetable broth, barley, and lots of veggies make this soup hearty and filling. Easy to make and delicious.\" — BEAKER1"},{"recipe_directions":"\"This Moroccan recipe was passed down for generations in my family. It is a favorite! May be served hot or cold according to taste,\" says Hanna R."},{"recipe_directions":"\"Fresh and lemony, the zest makes this salad sing.\" — BGCITYKAT"},{"recipe_directions":"\"Fresh and flavorful, and I love the light, refreshing dressing. I used all ingredients to taste and a 2:1 ratio of olive oil to lemon juice.\" — naples34102"},{"recipe_directions":"\"I made up this salad because our garden is simply overflowing with zucchini! We ate it as a main dish for dinner.\" — homecookingtheworldover"},{"recipe_directions":"\"Because this salad is so simple, fresh, top-quality tomatoes and mozzarella are important,\" Marina says."},{"recipe_directions":"\"This is a light, healthy tapa that goes best with crisp white wines and crunchy bread. Great for experimenting with a variety of different vegetables, spices, and vinegars.\" — La Cocina de Redondita"},{"recipe_directions":"\"I loved these flavors and the chewy texture of the kale (over limpness of spinach, which I also love). The flavors were great, the preparation was very easy, and I love discovering a healthy recipe that is so tasty.\" — LFeeley"},{"recipe_directions":"\"Scallops are one of the most delicious foods if seared properly, and the addition of peppers and onions complements them quite well. Serve with couscous or rice for a delicious meal,\" Roderic Rinehart says."},{"recipe_directions":"\"Hearty and healthy soup that's a favorite with friends and family. It sounds more difficult than it is. Serve with grated Parmesan cheese.\" — colleenlora"},{"recipe_directions":"\"The flavors are amazing! Especially the peppers, so I use two,\" Amanda says. \"This makes a delicious sauce that could be served over rice if you want to leave the potatoes out.\""},{"recipe_directions":"\"So easy that even I could make it, and I am a beginning cook! It looks very presentable for guests and takes only minutes.\" — KELLID26"},{"recipe_directions":"\"This is a very easy seared halibut with a wine and caper sauce! It takes hardly any time at all to make, but it is sure to leave a lasting impression,\" Barbara Tantrum says."},{"recipe_directions":"\"Fresh tomatoes, herbs, and a touch of wine combine to make a light yet distinctive sauce for sauteed sea scallops with tiny shrimp,\" Sean says."},{"recipe_directions":"\"This was an amazingly refreshing side dish,\" rags says. \"Perfect for a hot summer night. I also made the leftovers into a new lunch the next day. I took the leftovers and added a can of tuna, some red onion, and a bit more vinegar, and it was a hit! I will definitely be making this again.\""},{"recipe_directions":"\"I've been making this one for awhile and I always love it. I typically don't use flounder but instead use orange roughy, just because that's usually what I have on hand. I love topping this with a bit of feta cheese as I put it in on my plate. It just adds to the whole Mediterranean feel.\" — dburdenbates"},{"recipe_directions":"\"This salad is so refreshing and yummy! Seasonal fruit with a touch of lime and honey makes it elegant, too,\" Tryna P. says."},{"recipe_directions":"\"This delicious chicken dish easy to prepare. The light and luscious lemon sauce really pops without being too acidic; it is simply divine. Serve it with herb-roasted potatoes or lemon-rice pilaf.\" — LemonLush"},{"recipe_directions":"\"This quick salmon dish is perfect for a weeknight dinner. Serve with a side of sauteed spinach and a glass of pinot noir.\" — CHEDDAR97005"},{"recipe_directions":"\"Fakes (pronounced 'Fah-kehs') is a staple in the Greek kitchen and an especially filling meal,\" Diana Moutsopoulos says. \"It is traditionally served with a drizzle of olive oil and lots of vinegar. Though the vinegar is, of course, optional, try it. It lifts the lentils and adds another dimension of flavor!\""},{"recipe_directions":"\"Delicious, refreshing, and hearty salad for the hot days of summer. And also an excellent gluten-free substitute for pasta salad. A larger portion is a meal in itself.\" — Lazy Cook"},{"recipe_directions":"\"A nice change from the ordinary grilled chicken. This is excellent served with pita bread, garlicky tzatziki, and a Greek salad. Lamb can be substituted for the chicken, and many variations on vegetables can be used,\" Dolce Cuoco says."},{"recipe_directions":"\"A wonderful recipe! So easy that I make this about once a week,\" Amy says. \"Sometimes, I take the time to peel off the skins on the garbanzo beans. It does make a creamier texture but it isn't really that necessary. It tastes fantastic either way.\""},{"recipe_directions":"\"This is the perfect romantic dinner for two when served with an Oregon Pinot Noir, crusty bread, wild rice, and salad.\" — CHEDDAR97005"},{"recipe_directions":"\"Briam is a traditional Greek roasted vegetable dish with potatoes, zucchini, tomatoes, and red onions with lots of olive oil. It is a typical example of Greek cuisine where a few simple ingredients are turned into an utterly delicious dish with little effort. It can be served as a main course. With olive oil as the only source of fat, it is a quintessential example of the Mediterranean diet, and it is vegan to boot. If preferred, serve with a hearty chunk of feta on the side,\" Diana Moutsopoulos says."},{"recipe_directions":"\"Even though there are not a lot of different ingredients in this braised chicken dish, those used in this recipe offer a wide range of textures and tastes,\" Chef John says."},{"recipe_directions":"\"I knew this recipe would be a sure thing, not likely to disappoint us. And it didn't. It is a true gem and I know I will return to it often — not something I generally say about any recipe,\" writes naples34102. \"This is a fresh-tasting dish that allows the flavor of the beautiful halibut to shine. No heavy seasonings, no heavy, rich sauce. Excellent, especially served with wild rice pilaf.\""}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Mediterranean Diet Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699642367-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TR7640ZUtXJgiuk7ELLYvO646Cc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1505x0:1507x2):format(webp)/8190439-430fb3f4d4164d54baff2081c0203a02.jpg"
@@ -2939,59 +3112,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280504/mediterranean-orzo-salad/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Mediterranean Orzo Salad</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ (16 ounce) package uncooked orzo pasta\n\n\n½ pint cherry tomatoes, halved\n\n\n½ cup diced red onion\n\n\n1 cup diced cucumber\n\n\n1 cup pitted Mediterranean olives, cut in half\n\n\n1 cup finely diced Asiago cheese"},{"recipe_ingredients":"1 ½ teaspoons minced fresh garlic\n\n\n½ cup extra-virgin olive oil\n\n\n½ cup red wine vinegar\n\n\n½  lemon, juiced\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup chopped fresh basil\n\n\n2 tablespoons chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ (16 ounce) package uncooked orzo pasta\n\n\n½ pint cherry tomatoes, halved\n\n\n½ cup diced red onion\n\n\n1 cup diced cucumber\n\n\n1 cup pitted Mediterranean olives, cut in half\n\n\n1 cup finely diced Asiago cheese'}, {'recipe_ingredients': '1 ½ teaspoons minced fresh garlic\n\n\n½ cup extra-virgin olive oil\n\n\n½ cup red wine vinegar\n\n\n½  lemon, juiced\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup chopped fresh basil\n\n\n2 tablespoons chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This Mediterranean orzo salad features crunchy vegetables and a flavorful homemade vinaigrette."},{"recipe_directions":"These are the simple ingredients you’ll need to make this colorful and filling orzo pasta salad recipe:"},{"recipe_directions":"You’ll find the full, step-by-step recipe below — but here’s a brief overview of what you can expect when you make this orzo salad:"},{"recipe_directions":"This easy orzo salad recipe is the perfect potluck dish. It will work well with other potluck and picnic favorites — explore Our Most Popular Potluck Recipes collection for delicious inspiration. Here are a few of the ideas you’ll find:"},{"recipe_directions":"Yes, this orzo salad is a great make-ahead dish. Since the flavors need time to meld in the fridge, it might actually make more sense to make it a day or two in advance."},{"recipe_directions":"Store this pasta salad in an airtight container in the refrigerator for up to five days."},{"recipe_directions":"The texture of the cooked pasta may change during the freezing and thawing process. However, you can freeze this orzo salad for up to three months if you have leftovers."},{"recipe_directions":"“Made it for lunches for the work week,” says Danceann. “Covered and refrigerated it overnight. Great recipe to use up the abundance of cherry tomatoes and cucumbers."},{"recipe_directions":"“Delicious,” raves Karen Witzel Bradley. “I added a small can of corn and  two cups of arugula. I used feta cheese instead of Asiago. No changes to the vinaigrette — perfect as is!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook orzo in the boiling water, stirring occasionally until tender yet firm to the bite, about 9 minutes. Drain well. Rinse with cold water and drain well again."},{"recipe_directions":"Combine orzo, cherry tomatoes, red onion, cucumber, olives, and Asiago cheese in a large bowl."},{"recipe_directions":"To make the vinaigrette: Whisk garlic, olive oil, red wine vinegar, lemon juice, salt, and pepper together in a small bowl; drizzle over orzo mixture and toss lightly to combine. Add basil and parsley and mix well. Let sit for 20 minutes for flavors to blend, stirring occasionally."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Vegetarian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"418\nCalories\n\n\n27g \nFat\n\n\n35g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699642374-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Z8JXprzPWKf_Uab327fAZ2DQ4KA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/268999-ddmfs-mediterranean-chicken-sheet-pan-dinner-4X3-0038-4b58f57d84cc403e9c5f5e0f7ff88fb3.jpg"
@@ -3005,59 +3174,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268999/mediterranean-chicken-sheet-pan-dinner/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Mediterranean Chicken Sheet Pan Dinner</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup extra-virgin olive oil\n\n\n  lemon, juiced\n\n\n2 tablespoons balsamic vinegar\n\n\n1 teaspoon dried tarragon\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon paprika\n\n\n1 teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n4  chicken thighs with skin\n\n\n1 small red onion, sliced into petals\n\n\n8  mini bell peppers, halved lengthwise and seeded\n\n\n1 pound baby potatoes, halved\n\n\n1  lemon, sliced\n\n\n¼ cup crumbled feta cheese\n\n\n¼ cup fresh parsley, chopped\n\n\n8  pitted kalamata olives"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup extra-virgin olive oil\n\n\n  lemon, juiced\n\n\n2 tablespoons balsamic vinegar\n\n\n1 teaspoon dried tarragon\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon paprika\n\n\n1 teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n4  chicken thighs with skin\n\n\n1 small red onion, sliced into petals\n\n\n8  mini bell peppers, halved lengthwise and seeded\n\n\n1 pound baby potatoes, halved\n\n\n1  lemon, sliced\n\n\n¼ cup crumbled feta cheese\n\n\n¼ cup fresh parsley, chopped\n\n\n8  pitted kalamata olives'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Line a large rimmed baking sheet with aluminum foil."},{"recipe_directions":"Whisk olive oil, juice of 1 lemon, vinegar, tarragon, oregano, paprika, salt, and pepper together in a large bowl."},{"recipe_directions":"Add chicken thighs, onion, baby bell peppers, and potatoes. Stir until everything is evenly coated."},{"recipe_directions":"Transfer vegetable-chicken mixture to the prepared baking sheet and spread in an even layer. Scatter lemon slices over the vegetables, making sure to leave the chicken uncovered so that the skin will brown."},{"recipe_directions":"Bake in preheated oven for about 40 minutes. Remove from oven and top with feta, parsley, and olives."},{"recipe_directions":"Please note differences in the recipe name, as well as the cook time when using the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Thigh Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"533\nCalories\n\n\n32g \nFat\n\n\n41g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699642381-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ROM91hp19DYURgRRuHp-mnTyGuo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/342529-2da8469702ab41b886cdf71829cce0d6.jpg"
@@ -3070,59 +3235,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13930/black-bean-hummus/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Black Bean Hummus</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can black beans\n\n\n1 clove garlic\n\n\n2 tablespoons lemon juice, or more to taste\n\n\n1 1/2 tablespoons tahini\n\n\n1/2 teaspoon ground cumin, or more to taste\n\n\n1/2 teaspoon salt, or more to taste\n\n\n1/8 teaspoon cayenne pepper, or more to taste\n\n\n1/4 teaspoon paprika, or as needed\n\n\n10  Greek olives"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can black beans\n\n\n1 clove garlic\n\n\n2 tablespoons lemon juice, or more to taste\n\n\n1 1/2 tablespoons tahini\n\n\n1/2 teaspoon ground cumin, or more to taste\n\n\n1/2 teaspoon salt, or more to taste\n\n\n1/8 teaspoon cayenne pepper, or more to taste\n\n\n1/4 teaspoon paprika, or as needed\n\n\n10  Greek olives'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Drain beans and reserve liquid."},{"recipe_directions":"Place garlic into the bowl of a food processor and pulse until minced. Add black beans, 2 tablespoons bean liquid, lemon juice, tahini, cumin, salt, and cayenne pepper; process until smooth, scraping down the sides as needed."},{"recipe_directions":"Taste and add additional bean liquid, lemon juice, tahini, cumin, salt, and cayenne pepper as needed. Transfer to a serving bowl and sprinkle with paprika. Arrange Greek olives over top."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Hummus Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"81\nCalories\n\n\n3g \nFat\n\n\n10g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699642385-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wTyOzddP7c20PCYaSZ0VrAYOnLs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5493511-695e179ff4534955b45d9cb42243deb9.jpg"
@@ -3135,59 +3296,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265558/shrimp-in-foil/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Shrimp in Foil</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup chopped fresh parsley\n\n\n½ cup olive oil\n\n\n2 cloves garlic, minced\n\n\n1 pinch red pepper flakes, or to taste\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 pound uncooked medium shrimp, peeled and deveined\n\n\n1 sheet heavy-duty aluminum foil\n\n\n1  lemon, juiced\n\n\n½  lemon, sliced into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup chopped fresh parsley\n\n\n½ cup olive oil\n\n\n2 cloves garlic, minced\n\n\n1 pinch red pepper flakes, or to taste\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 pound uncooked medium shrimp, peeled and deveined\n\n\n1 sheet heavy-duty aluminum foil\n\n\n1  lemon, juiced\n\n\n½  lemon, sliced into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine parsley, olive oil, garlic, red pepper flakes, salt, and black pepper in a large bowl. Add shrimp and mix well. Allow to marinate for 10 minutes."},{"recipe_directions":"Meanwhile, preheat an outdoor grill for high heat."},{"recipe_directions":"Lay 1 sheet heavy-duty aluminum foil on a flat surface; fold in half. Fold up edges to create a pouch in the middle. Spread marinated shrimp in the pouch and drizzle with lemon juice. Lightly close to make a packet."},{"recipe_directions":"Cook packet on the preheated grill until shrimp are bright pink on the outside and the meat is opaque, 8 to 10 minutes. Serve with lemon wedges."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shellfish"},{"recipe_tags":"Shrimp"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"343\nCalories\n\n\n28g \nFat\n\n\n6g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699642392-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VeYU1focoEagtvVFfCz464BulvU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6873573-grilled-lamb-loin-chops-France-C-4x3-1-e2b40bae93b2434fae7fc2cd9028af89.jpg"
@@ -3201,59 +3358,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274989/grilled-lamb-loin-chops/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Grilled Lamb Loin Chops</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons herbes de Provence\n\n\n1 ½ tablespoons olive oil\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons lemon juice\n\n\n8 (5 ounce) lamb loin chops\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons herbes de Provence\n\n\n1 ½ tablespoons olive oil\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons lemon juice\n\n\n8 (5 ounce) lamb loin chops\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine herbes de Provence, oil, garlic, and lemon juice in a small bowl. Rub mixture over lamb chops; cover and refrigerate for at least 1 hour, or up to 4 hours for maximum flavor."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Season chops with salt and pepper."},{"recipe_directions":"Place chops on the preheated grill and cook until browned on the outside and an instant-read thermometer inserted into the center reads at least 125 degrees F (52 degrees C) for medium-rare, 3 to 4 minutes per side."},{"recipe_directions":"Transfer chops to an aluminum foil-covered plate; let rest for 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Lamb"},{"recipe_tags":"Chops"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"579\nCalories\n\n\n44g \nFat\n\n\n1g \nCarbs\n\n\n43g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699642396-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IvazirMj2ZUoWtGKaDx1Hk2cTHY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7174019-4a523f39b0224470be40f55f231cbfde.jpg"
@@ -3266,59 +3419,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276566/baked-spaghetti-squash/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Baked Spaghetti Squash</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1  spaghetti squash, halved and seeded"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1  spaghetti squash, halved and seeded'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease a baking sheet with olive oil. Place spaghetti squash, cut-side down, onto the baking sheet."},{"recipe_directions":"Bake in the preheated oven until tender and skin can easily be pierced with a fork, 40 to 60 minutes, depending on the size."},{"recipe_directions":"Remove from the oven and allow to rest until cool enough to handle. Scrape out the flesh with a fork and discard the skins."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"84\nCalories\n\n\n4g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699642402-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/N77YA9wThgTVocqIPwvDc0bJeyM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6494196-cavatelli-and-broccoli-Melissa-Scheider-1x1-1-764c082fa2d54a9a90d180a76941be16.jpg"
@@ -3332,59 +3481,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/11695/cavatelli-and-broccoli/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Cavatelli and Broccoli</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 heads fresh broccoli, cut into florets\n\n\n1 ½ pounds cavatelli pasta\n\n\n½ cup olive oil\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon salt, or more to taste\n\n\n1 teaspoon crushed red pepper flakes\n\n\n2 tablespoons grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 heads fresh broccoli, cut into florets\n\n\n1 ½ pounds cavatelli pasta\n\n\n½ cup olive oil\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon salt, or more to taste\n\n\n1 teaspoon crushed red pepper flakes\n\n\n2 tablespoons grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to a boil. Cook broccoli in boiling water for about 5 minutes. Use a slotted spoon to remove broccoli to a large bowl and set aside."},{"recipe_directions":"Season boiling water in the same pot with salt. Cook cavatelli in boiling water until tender yet firm to the bite, 8 to 10 minutes. Drain and set aside."},{"recipe_directions":"Heat olive oil in a large skillet over medium heat. Sauté garlic in hot oil until lightly golden, being careful not to burn it. Add broccoli; cook, stirring occasionally, until tender yet crisp to the bite, about 10 minutes."},{"recipe_directions":"Add cooked cavatelli to the skillet; toss well with broccoli mixture until warmed through. Season with salt and hot pepper flakes. Serve with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"317\nCalories\n\n\n10g \nFat\n\n\n48g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699642408-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ihLHEI0yE8Sd_HrrX-_Wppj8mWM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/145409_GreekTzatziki_ddmfs_3x4_3903-1475fff213ec4190bb847213c7b5011a.jpg"
@@ -3398,59 +3543,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/145409/greek-tzatziki/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Greek Tzatziki</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 20 mins\n\n\nServings:\n40 \n\n\nYield:\n5 cups"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (32 ounce) container plain low-fat yogurt\n\n\n½  English cucumber with peel, grated\n\n\n2 tablespoons fresh lemon juice\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1 clove garlic, pressed\n\n\n3 tablespoons chopped fresh dill\n\n\n1 tablespoon salt, or to taste\n\n\n1 tablespoon freshly ground black pepper, or to taste\n\n\n2 teaspoons grated lemon zest"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (32 ounce) container plain low-fat yogurt\n\n\n½  English cucumber with peel, grated\n\n\n2 tablespoons fresh lemon juice\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1 clove garlic, pressed\n\n\n3 tablespoons chopped fresh dill\n\n\n1 tablespoon salt, or to taste\n\n\n1 tablespoon freshly ground black pepper, or to taste\n\n\n2 teaspoons grated lemon zest'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Combine yogurt, grated cucumber, lemon juice, olive oil, and garlic together in a large bowl."},{"recipe_directions":"Add dill, salt, pepper, and lemon zest; mix until smooth."},{"recipe_directions":"Pour into a serving dish, cover tightly, and refrigerate 8 hours before serving."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"},{"recipe_tags":"Tzatziki"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"22\nCalories\n\n\n1g \nFat\n\n\n2g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699642414-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/X7WlKCEgBR3V8fwoEXfcEbUdG9Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/14373-GreekSaladi-mfs-4X3-0354-e8388819cafa4bae843ea433258aa03d.jpg"
@@ -3464,59 +3605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14373/greek-salad-i/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Greek Salad</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head romaine lettuce- rinsed, dried and chopped\n\n\n1  cucumber, sliced\n\n\n2 large tomatoes, chopped\n\n\n1 (6 ounce) can pitted black olives\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n1  red onion, thinly sliced\n\n\n1 cup crumbled feta cheese\n\n\n6 tablespoons olive oil\n\n\n1  lemon, juiced\n\n\n1 teaspoon dried oregano\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head romaine lettuce- rinsed, dried and chopped\n\n\n1  cucumber, sliced\n\n\n2 large tomatoes, chopped\n\n\n1 (6 ounce) can pitted black olives\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n1  red onion, thinly sliced\n\n\n1 cup crumbled feta cheese\n\n\n6 tablespoons olive oil\n\n\n1  lemon, juiced\n\n\n1 teaspoon dried oregano\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make a restaurant-worthy dish at home with this top-rated Greek salad recipe."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"This Greek salad is a delicious combination of romaine lettuce, sliced cucumbers, chopped tomatoes, pitted black olives (or Kalamata olives), red and green bell peppers, a red onion, and feta cheese."},{"recipe_directions":"The dressing is a simple mixture of olive oil, a juiced lemon, dried oregano, and ground black pepper."},{"recipe_directions":"Combine the salad ingredients in a large bowl, mix up the dressing in another bowl, and toss the salad in the dressing. That’s how easy it is to make Greek salad with a homemade dressing! You’ll find the full, step-by-step recipe below."},{"recipe_directions":"You can make the Greek salad dressing a few days in advance — just store it in the refrigerator until you’re ready to use it. We recommend throwing the salad ingredients just before serving for the most delicious results."},{"recipe_directions":"“This was so good,” raves one Allrecipes community member. “I made it for some friends that came over for dinner and it was a big hit. I will for sure make this often. It would be great for a light lunch.”"},{"recipe_directions":"“A simply wonderful salad,” raves one Allrecipes community member. “Very easy to prepare. The dressing works beautifully with the feta. I've made it several times in the past few weeks and loved it every time.”"},{"recipe_directions":"“All the flavors went well together and the dressing was nice and light,” says collegechef08. “I keep a lot of these ingredients on hand so I'll be making this often.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Combine romaine, cucumber, tomatoes, olives, bell peppers, and red onion in a large bowl; sprinkle with feta cheese."},{"recipe_directions":"Whisk olive oil, lemon juice, oregano, and black pepper together in a small bowl. Pour dressing over salad, toss well to combine, and serve."},{"recipe_directions":"Pour dressing over salad, toss well to combine, and serve."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Romaine Lettuce Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"265\nCalories\n\n\n22g \nFat\n\n\n14g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699642419-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/At_BAXek1WbjU6s5ym2Vw_HiJKA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/26921-real-hummus-DDMFS-4x3-6747fff2558e42619a7231eb397eab75.jpg"
@@ -3530,59 +3667,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/26921/real-hummus/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Real Hummus</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n20 \n\n\nYield:\n2 1/2 cups"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cloves garlic\n\n\n1 (19 ounce) can garbanzo beans, half the liquid reserved\n\n\n4 tablespoons lemon juice\n\n\n2 tablespoons tahini\n\n\n1 teaspoon salt\n\n\n2 tablespoons olive oil\n\n\n  black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cloves garlic\n\n\n1 (19 ounce) can garbanzo beans, half the liquid reserved\n\n\n4 tablespoons lemon juice\n\n\n2 tablespoons tahini\n\n\n1 teaspoon salt\n\n\n2 tablespoons olive oil\n\n\n  black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Chop garlic in a blender."},{"recipe_directions":"Pour garbanzo beans into the blender, reserving about 1 tablespoon for garnish. Add reserved liquid, lemon juice, tahini, and salt to the blender. Blend until creamy and well mixed."},{"recipe_directions":"Transfer mixture to a medium serving bowl. Drizzle olive oil and sprinkle pepper over the top. Garnish with reserved garbanzo beans."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Hummus Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"54\nCalories\n\n\n3g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699642423-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lZnpNp6ifT69i-TcPxlS4yjy7VI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/859251-ff7d11f17e0b4bc580875e85f6501909.jpg"
@@ -3595,59 +3728,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15486/mediterranean-chicken/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Mediterranean Chicken</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons white wine\n\n\n2 teaspoons olive oil\n\n\n6  skinless, boneless chicken breast halves\n\n\n3 cloves garlic, minced\n\n\n½ cup diced onion\n\n\n3 cups tomatoes, chopped\n\n\n½ cup white wine\n\n\n2 teaspoons chopped fresh thyme\n\n\n1 tablespoon chopped fresh basil\n\n\n½ cup kalamata olives\n\n\n¼ cup chopped fresh parsley\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons white wine\n\n\n2 teaspoons olive oil\n\n\n6  skinless, boneless chicken breast halves\n\n\n3 cloves garlic, minced\n\n\n½ cup diced onion\n\n\n3 cups tomatoes, chopped\n\n\n½ cup white wine\n\n\n2 teaspoons chopped fresh thyme\n\n\n1 tablespoon chopped fresh basil\n\n\n½ cup kalamata olives\n\n\n¼ cup chopped fresh parsley\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat white wine and oil in a large skillet over medium heat. Add chicken and cook until golden, about 4 to 6 minutes on each side. Remove chicken from skillet and set aside."},{"recipe_directions":"Add garlic to pan drippings; sauté for 30 seconds. Add onion; cook and stir until onions are tender, about 3 minutes. Add tomatoes and bring to a boil. Reduce heat to low and add 1/2 cup white wine; simmer for 10 minutes. Add thyme and basil and simmer for 5 more minutes."},{"recipe_directions":"Return chicken to skillet, cover, and cook over low heat until the chicken is cooked through and no longer pink inside. Add olives and parsley; cook for 1 minute. Season with salt and pepper and serve."},{"recipe_directions":"This recipe is from The Webb Cooks, articles and recipes by Robyn Webb, courtesy of the American Diabetes Association."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"European"},{"recipe_tags":"Italian"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"222\nCalories\n\n\n6g \nFat\n\n\n7g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699642427-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/t6J8VfWgGntV6J-mDOvyQmJbptY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/13009pasta-fagiolimyhotsouthernmess4x3-78c598e1a27a4123a2b9a6f73c8f4a20.jpg"
@@ -3661,59 +3790,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13009/pasta-fagioli/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Pasta e Fagioli (Pasta and Beans)</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 medium onion, chopped\n\n\n2 stalks celery, chopped\n\n\n3 cloves garlic, minced\n\n\n2 teaspoons dried parsley\n\n\n1 teaspoon Italian seasoning\n\n\n¼ teaspoon crushed red pepper flakes\n\n\n  salt to taste\n\n\n1 (14.5 ounce) can chicken broth\n\n\n2 medium tomatoes, peeled and chopped\n\n\n1 (8 ounce) can tomato sauce\n\n\n½ cup ditalini or other small pasta\n\n\n1 (15 ounce) can cannellini beans, with liquid"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 medium onion, chopped\n\n\n2 stalks celery, chopped\n\n\n3 cloves garlic, minced\n\n\n2 teaspoons dried parsley\n\n\n1 teaspoon Italian seasoning\n\n\n¼ teaspoon crushed red pepper flakes\n\n\n  salt to taste\n\n\n1 (14.5 ounce) can chicken broth\n\n\n2 medium tomatoes, peeled and chopped\n\n\n1 (8 ounce) can tomato sauce\n\n\n½ cup ditalini or other small pasta\n\n\n1 (15 ounce) can cannellini beans, with liquid'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This restaurant-worthy pasta fagioli recipe is surprisingly easy (and cheap) to make at home."},{"recipe_directions":"Pasta fagioli (or pasta e fagioli), which means \"pasta and beans,\" is a traditional Italian soup. It consists of small noodles (such as ditalini or macaroni) and cannellini beans in a seasoned tomato broth."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These are the ingredients you'll need to make pasta e fagioli at home:"},{"recipe_directions":"· Oil: This pasta fagioli recipe starts with cooking an onion in olive oil.\n· Vegetables: You'll need an onion, celery, and a can of cannellini beans.\n· Seasonings and herbs: The flavorful soup is seasoned with fresh garlic, parsley, Italian seasoning, crushed red pepper flakes, and salt.\n· Broth: Use store-bought or homemade chicken broth.\n· Tomatoes: You'll need fresh chopped tomatoes and a can of tomato sauce.\n· Pasta: Make this traditional pasta fagioli with ditalini noodles (or any noodle you like)."},{"recipe_directions":"\"This entire recipe is cheaper than one bowl at Olive Garden,\" culinary producer Nicole McLaughlin (a.k.a. NicoleMcMom) says of this pasta fagioli recipe. Here are a few of her best tips and tricks for making a perfect pot of Italian soup every time:"},{"recipe_directions":"· Though the recipe calls for one can of chicken broth, Nicole uses more because she prefers her pasta fagioli a little more soupy.\n· Many pasta fagioli recipes call for Italian sausage. You can add the meat if you like, but this top-rated recipe is pretty hearty as-is.\n· To serve, Nicole likes to ladle the soup into bowls and top with freshly grated Parmesan, cracked black pepper, and fresh parsley."},{"recipe_directions":"Since this is a hearty pasta soup, there's really no need to pair pasta fagioli with any side dishes. However, a complementary side salad or a slice of crusty garlic bread will take this impressive dish over the top."},{"recipe_directions":"Store your (completely cooled) leftover pasta e fagioli in an airtight container in the fridge for up to five days. We don't recommend freezing this soup, as the pasta will likely become unpleasantly mushy during the thawing process."},{"recipe_directions":"\"Easy recipe and so very delicious,\" says jonna. \"I doubled the recipe and there was hardly a scrap left. I substituted a can of diced tomatoes for the fresh tomatoes.\""},{"recipe_directions":"\"This is the best pasta fagioli that I have ever tasted and I was raised on this stuff,\" raves calead910. \"What I love most is that it is affordable, easy, and delicious.\""},{"recipe_directions":"\"Great recipe, my family really enjoyed the soup,\" according to Charles Pickett. \"I added Parmesan and smoked Gouda cheese to mine and it was absolutely amazing.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Heat olive oil in a large saucepan over medium heat. Add onion, celery, garlic, parsley, Italian seasoning, pepper flakes, and salt; cook and stir until onion is translucent, about 5 minutes. Stir in chicken broth, tomato sauce, and tomatoes. Reduce the heat to low and simmer for 15 to 20 minutes."},{"recipe_directions":"Add pasta and cook until tender, about 10 minutes."},{"recipe_directions":"Stir in undrained beans and cook until heated through, 3 to 4 minutes."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"225\nCalories\n\n\n4g \nFat\n\n\n37g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699642431-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hXe7f6_3ZNk_oBLrlzLvRQYx5WM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/31522-greek-style-potatoes-ddmfs-Beauty-3x4-1-c184e4a2a4e547b18ca6e7c888205e9a.jpg"
@@ -3727,59 +3852,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/31522/greek-style-potatoes/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Greek-Style Potatoes</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  potatoes, peeled and quartered\n\n\n1 ½ cups water\n\n\n⅓ cup olive oil\n\n\n¼ cup fresh lemon juice\n\n\n2 cloves garlic, finely chopped\n\n\n2 cubes  chicken bouillon\n\n\n1 teaspoon dried thyme\n\n\n1 teaspoon dried rosemary\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  potatoes, peeled and quartered\n\n\n1 ½ cups water\n\n\n⅓ cup olive oil\n\n\n¼ cup fresh lemon juice\n\n\n2 cloves garlic, finely chopped\n\n\n2 cubes  chicken bouillon\n\n\n1 teaspoon dried thyme\n\n\n1 teaspoon dried rosemary\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Arrange potatoes evenly in the bottom of a medium baking dish."},{"recipe_directions":"Mix together water, olive oil, lemon juice, garlic, bouillon cubes, thyme, rosemary, and pepper in a small bowl. Pour mixture over potatoes."},{"recipe_directions":"Cover and bake in the preheated oven, turning occasionally, until potatoes are tender yet firm, 1 1/2 to 2 hours."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"418\nCalories\n\n\n19g \nFat\n\n\n59g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699642436-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/blMnbJKPZ5ZPjDFQbk6E9HEJ06Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1499x1199:1501x1201):format(webp)/6275622-2000-5a1cd13c02774a61a70303a09dce6f20.jpg"
@@ -3793,59 +3914,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/137650/greek-lentil-soup-fakes/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Greek Lentil Soup (Fakes)</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces brown lentils\n\n\n¼ cup olive oil\n\n\n1 medium onion, minced\n\n\n1 large carrot, chopped\n\n\n1 tablespoon minced garlic\n\n\n1 quart water\n\n\n2  bay leaves\n\n\n1 teaspoon dried oregano\n\n\n1 pinch crushed dried rosemary (Optional)\n\n\n1 tablespoon tomato paste\n\n\n  salt and ground black pepper to taste\n\n\n1 teaspoon olive oil, or to taste\n\n\n1 teaspoon red wine vinegar, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces brown lentils\n\n\n¼ cup olive oil\n\n\n1 medium onion, minced\n\n\n1 large carrot, chopped\n\n\n1 tablespoon minced garlic\n\n\n1 quart water\n\n\n2  bay leaves\n\n\n1 teaspoon dried oregano\n\n\n1 pinch crushed dried rosemary (Optional)\n\n\n1 tablespoon tomato paste\n\n\n  salt and ground black pepper to taste\n\n\n1 teaspoon olive oil, or to taste\n\n\n1 teaspoon red wine vinegar, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place lentils in a large saucepan; add enough water to cover by 1 inch. Bring water to a boil and cook for 10 minutes; drain."},{"recipe_directions":"Heat olive oil in a saucepan over medium heat. Add onion, carrot, and garlic; cook and stir until onion has softened and turned translucent, about 5 minutes. Pour in lentils, then add 1 quart water, bay leaves, oregano, and rosemary. Bring to a boil. Cover and reduce heat to medium-low; simmer for 10 minutes."},{"recipe_directions":"Stir in tomato paste; season with salt and pepper. Cover and simmer, stirring occasionally, until lentils have softened, 30 to 40 minutes. Add additional water if soup becomes too thick. Drizzle with olive oil and red wine vinegar to serve."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"357\nCalories\n\n\n16g \nFat\n\n\n40g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699642441-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xgB3wChUAgB0fIOz1-6Urm8s5Zk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/6723522-af2855be1a38418ebd9fc516034ffecc.jpg"
@@ -3858,59 +3975,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274231/grilled-octopus/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Grilled Octopus</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons kosher salt\n\n\n1 tablespoon black peppercorns\n\n\n  1 wine cork\n\n\n3 ½ pounds octopus, head and beak removed\n\n\n2 tablespoons extra virgin olive oil\n\n\n½ medium lemon\n\n\n½ tablespoon minced fresh parsley\n\n\n  salt and freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons kosher salt\n\n\n1 tablespoon black peppercorns\n\n\n  1 wine cork\n\n\n3 ½ pounds octopus, head and beak removed\n\n\n2 tablespoons extra virgin olive oil\n\n\n½ medium lemon\n\n\n½ tablespoon minced fresh parsley\n\n\n  salt and freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot 1/2 full with water. Add 2 tablespoons kosher salt, peppercorns, and the wine cork; bring to a boil over high heat."},{"recipe_directions":"Meanwhile, place octopus on a cutting board. Using a wooden spoon or meat mallet, pound the octopus multiple times, starting in the middle and moving down each tentacle to tenderize the meat."},{"recipe_directions":"Dip tentacles into the boiling water 3 times, holding them in the boiling water 2 to 3 seconds each time, until the tentacles curl up. Submerge entire octopus in the boiling water. Bring water back to a boil, reduce heat to low, cover, and simmer until octopus is fork-tender, 45 to 60 minutes. Remove from heat and cool for 30 minutes."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Grill octopus until charred on all sides, 3 to 4 minutes per side."},{"recipe_directions":"Remove from heat, slice into pieces, and place on a serving platter. Drizzle with extra virgin olive oil and squeeze lemon over the top. Sprinkle with parsley and season with salt and pepper. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shellfish"},{"recipe_tags":"Octopus and Squid"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"384\nCalories\n\n\n9g \nFat\n\n\n11g \nCarbs\n\n\n62g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699642447-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UQSE_uGEChibkrffwkW6dFKgYU8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1588x873:1590x875):format(webp)/14260-mediterranean-lentil-salad-larkspur-4x3.jpg-249fb0aed57e41a68c560b4b4a7204db.jpg"
@@ -3924,59 +4037,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14260/mediterranean-lentil-salad/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Mediterranean Lentil Salad</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup dry brown lentils\n\n\n1 cup diced carrots\n\n\n1 cup red onion, diced\n\n\n2 cloves garlic, minced\n\n\n1  bay leaf\n\n\n½ teaspoon dried thyme\n\n\n2 tablespoons lemon juice\n\n\n½ cup diced celery\n\n\n¼ cup chopped parsley\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ cup olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup dry brown lentils\n\n\n1 cup diced carrots\n\n\n1 cup red onion, diced\n\n\n2 cloves garlic, minced\n\n\n1  bay leaf\n\n\n½ teaspoon dried thyme\n\n\n2 tablespoons lemon juice\n\n\n½ cup diced celery\n\n\n¼ cup chopped parsley\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ cup olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine lentils, carrots, onion, garlic, bay leaf, and thyme in a saucepan. Add enough water to cover by 1 inch; bring to a boil, reduce heat and simmer uncovered for 15 to 20 minutes or until lentils are tender but not mushy."},{"recipe_directions":"Drain lentils and vegetables and remove bay leaf. Add olive oil, lemon juice, celery, parsley, salt and pepper. Toss gently to mix and serve at room temperature."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Lentil Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"147\nCalories\n\n\n7g \nFat\n\n\n16g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699642451-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OTNNV8JNPyv0iK0HWEJ8F8cIafc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/265321_SugoDiPomodoro_ddmf_01_4x3_JD_5496-a99307639934483d9df19790f05dd3cb.jpg"
@@ -3990,59 +4099,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265321/sugo-di-pomodoro-authentic-italian-tomato-sauce/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Sugo di Pomodoro (Authentic Italian Tomato Sauce)</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons extra-virgin olive oil\n\n\n1  onion, chopped\n\n\n4 cloves garlic, halved\n\n\n2 (14 ounce) cans passata (crushed tomatoes)\n\n\n¼ cup fresh basil, torn in half\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons extra-virgin olive oil\n\n\n1  onion, chopped\n\n\n4 cloves garlic, halved\n\n\n2 (14 ounce) cans passata (crushed tomatoes)\n\n\n¼ cup fresh basil, torn in half\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Heat oil in a saucepan over low heat. Add onion and garlic. Cook and stir until soft and translucent, about 5 minutes."},{"recipe_directions":"Add passata, basil, and salt. Cover and simmer over medium heat, stirring occasionally, until tomato sauce has thickened, about 20 minutes."},{"recipe_directions":"Remove garlic halves before serving."},{"recipe_directions":"Instead of the onion, you can use 2 shallots. If you have the time, you can simmer the sauce much longer for a more intense flavor."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Sauces"},{"recipe_tags":"Pasta Sauces"},{"recipe_tags":"Tomato"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"152\nCalories\n\n\n7g \nFat\n\n\n21g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699642456-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/16704/healthy-recipes/mediterranean-diet/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zf1qz3v0HptfeNOkYlKnxpJRmmg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(679x0:681x2):format(webp)/Grilled-Mediterranean-Salmon-Kabobs-1x1-Chef-Mo-eb6d54298550495c96c95c7f60b15dd7.jpg"
@@ -4054,42 +4159,43 @@
 Mediterranean Grilled Salmon Kabobs</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8505567/mediterranean-grilled-salmon-kabobs/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Mediterranean Grilled Salmon Kabobs</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nMarinate Time:\n15 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8 \n\n\nYield:\n8 kabobs"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup tzatziki sauce\n\n\n1  lemon, zested\n\n\n1 tablespoon lemon juice\n\n\n1 pound salmon fillets, cut into 1 inch cubes\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon dried oregano\n\n\n2 medium green bell peppers, cut into 2 inch pieces\n\n\n1 pint grape tomatoes\n\n\n½  red onion, cut into wedges\n\n\n¼ cup feta cheese\n\n\n  more tzatziki sauce for serving"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup tzatziki sauce\n\n\n1  lemon, zested\n\n\n1 tablespoon lemon juice\n\n\n1 pound salmon fillets, cut into 1 inch cubes\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon dried oregano\n\n\n2 medium green bell peppers, cut into 2 inch pieces\n\n\n1 pint grape tomatoes\n\n\n½  red onion, cut into wedges\n\n\n¼ cup feta cheese\n\n\n  more tzatziki sauce for serving'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine tzatziki sauce, lemon juice, and lemon zest in a bowl. Add salmon, toss to coat, and marinate in the refrigerator for 15 minutes."},{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Combine garlic, oregano, and olive oil in a bowl. Add green peppers, red onions, and grape tomatoes."},{"recipe_directions":"Beginning and ending with salmon, thread salmon, grape tomatoes, red onions, and green peppers onto 8 skewers."},{"recipe_directions":"Cook salmon skewers on the hot grill until fish is opaque in color, turning every 5 minutes, about 15 minutes total. Top with feta cheese and extra tzatziki sauce."},{"recipe_directions":"Grill naan to make this whole dish a meal."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Seafood"},{"recipe_tags":"Skewers and Kabobs"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"174\nCalories\n\n\n22g \nFat\n\n\n6g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>